--- a/BackTest/2020-01-13 BackTest LINK.xlsx
+++ b/BackTest/2020-01-13 BackTest LINK.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>9941.231587348531</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>9563.927287348532</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>9213.927287348532</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>9382.923087348532</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>9579.930287348532</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>9693.986087348532</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>9741.847340443861</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>9242.950440443861</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>8416.722940443862</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>8416.722940443862</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>7296.512240443863</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>7015.075740443863</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>6944.075740443863</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>4939.801840443863</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>5064.269240443862</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>5082.291140443862</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>5069.503540443862</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>5130.025540443862</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>4256.251040443863</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>4256.251040443863</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>4256.251040443863</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>4256.251040443863</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>4200.662440443863</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>4258.526040443862</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-18751.78675551504</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I178" t="n">
         <v>2551</v>
@@ -6296,11 +6296,9 @@
         <v>-18751.78675551504</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
-      </c>
-      <c r="I179" t="n">
-        <v>2545</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
         <v>2551</v>
       </c>
@@ -6337,9 +6335,11 @@
         <v>-18751.78675551504</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>2545</v>
+      </c>
       <c r="J180" t="n">
         <v>2551</v>
       </c>
@@ -7333,11 +7333,17 @@
         <v>-17306.72685551505</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>2551</v>
+      </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7366,11 +7372,17 @@
         <v>-17267.51116924054</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>2547</v>
+      </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7399,11 +7411,17 @@
         <v>-17110.83275169255</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>2550</v>
+      </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7436,7 +7454,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7465,11 +7487,17 @@
         <v>-17231.01235169255</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>2548</v>
+      </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7502,7 +7530,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7535,7 +7567,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7568,7 +7604,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7601,7 +7641,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7634,7 +7678,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7667,7 +7715,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7700,7 +7752,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7729,11 +7785,17 @@
         <v>-17204.96955169255</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>2557</v>
+      </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7766,7 +7828,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7799,7 +7865,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7832,7 +7902,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7865,7 +7939,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7898,7 +7976,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7927,11 +8009,17 @@
         <v>-15926.05995169255</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>2568</v>
+      </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7964,7 +8052,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7997,7 +8089,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8030,7 +8126,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8063,7 +8163,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8096,7 +8200,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8125,11 +8233,17 @@
         <v>-16058.05905169255</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>2552</v>
+      </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8158,11 +8272,17 @@
         <v>-15917.51205169255</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>2553</v>
+      </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8191,11 +8311,17 @@
         <v>-15919.51205169255</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>2558</v>
+      </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8224,11 +8350,17 @@
         <v>-15919.51205169255</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>2553</v>
+      </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8257,11 +8389,17 @@
         <v>-15919.51205169255</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>2553</v>
+      </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8290,11 +8428,17 @@
         <v>-16029.51205169255</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>2553</v>
+      </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8323,15 +8467,17 @@
         <v>-16029.51205169255</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I240" t="n">
         <v>2552</v>
       </c>
-      <c r="J240" t="n">
-        <v>2552</v>
-      </c>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8360,15 +8506,15 @@
         <v>-16028.51205169255</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
         <v>2552</v>
       </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L241" t="n">
@@ -8402,12 +8548,10 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>2552</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L242" t="n">
@@ -8442,7 +8586,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8475,7 +8623,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8508,7 +8660,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8541,7 +8697,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8574,7 +8734,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8607,7 +8771,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8640,7 +8808,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8673,7 +8845,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8706,7 +8882,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8739,7 +8919,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8768,11 +8952,17 @@
         <v>-16509.80815169254</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>2555</v>
+      </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8801,11 +8991,17 @@
         <v>-16472.42755169254</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>2552</v>
+      </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8838,7 +9034,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8871,7 +9071,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8904,7 +9108,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8937,7 +9145,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8970,7 +9182,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9003,7 +9219,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9036,7 +9256,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9069,7 +9293,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9102,7 +9330,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9135,7 +9367,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9168,7 +9404,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9197,11 +9437,15 @@
         <v>-15736.27615169255</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9230,11 +9474,15 @@
         <v>-15712.97615169255</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9263,11 +9511,15 @@
         <v>-15712.97615169255</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9296,11 +9548,15 @@
         <v>-15541.27255169255</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9329,11 +9585,15 @@
         <v>-15149.71022905248</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9362,11 +9622,15 @@
         <v>-14433.26962905248</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9399,7 +9663,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9428,11 +9696,15 @@
         <v>-14432.26962905248</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9461,11 +9733,15 @@
         <v>-14432.89962905248</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9498,7 +9774,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9531,7 +9811,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9564,7 +9848,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9597,7 +9885,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9630,7 +9922,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9663,7 +9959,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9696,7 +9996,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9725,11 +10029,15 @@
         <v>-14198.75182905248</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9758,11 +10066,15 @@
         <v>-14198.75182905248</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9791,11 +10103,15 @@
         <v>-14198.75182905248</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9824,11 +10140,15 @@
         <v>-14198.75182905248</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9857,11 +10177,15 @@
         <v>-14199.00182905248</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9892,9 +10216,15 @@
       <c r="H287" t="n">
         <v>1</v>
       </c>
-      <c r="I287" t="inlineStr"/>
+      <c r="I287" t="n">
+        <v>2596</v>
+      </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9925,9 +10255,15 @@
       <c r="H288" t="n">
         <v>1</v>
       </c>
-      <c r="I288" t="inlineStr"/>
+      <c r="I288" t="n">
+        <v>2597</v>
+      </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9958,9 +10294,15 @@
       <c r="H289" t="n">
         <v>1</v>
       </c>
-      <c r="I289" t="inlineStr"/>
+      <c r="I289" t="n">
+        <v>2594</v>
+      </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -9991,9 +10333,15 @@
       <c r="H290" t="n">
         <v>1</v>
       </c>
-      <c r="I290" t="inlineStr"/>
+      <c r="I290" t="n">
+        <v>2584</v>
+      </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10024,9 +10372,15 @@
       <c r="H291" t="n">
         <v>1</v>
       </c>
-      <c r="I291" t="inlineStr"/>
+      <c r="I291" t="n">
+        <v>2584</v>
+      </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10057,9 +10411,15 @@
       <c r="H292" t="n">
         <v>1</v>
       </c>
-      <c r="I292" t="inlineStr"/>
+      <c r="I292" t="n">
+        <v>2585</v>
+      </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10090,9 +10450,15 @@
       <c r="H293" t="n">
         <v>1</v>
       </c>
-      <c r="I293" t="inlineStr"/>
+      <c r="I293" t="n">
+        <v>2585</v>
+      </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10123,9 +10489,15 @@
       <c r="H294" t="n">
         <v>1</v>
       </c>
-      <c r="I294" t="inlineStr"/>
+      <c r="I294" t="n">
+        <v>2583</v>
+      </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10154,11 +10526,17 @@
         <v>-14610.99262905248</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>2578</v>
+      </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10187,11 +10565,17 @@
         <v>-14586.25562905248</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>2578</v>
+      </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10220,11 +10604,17 @@
         <v>-18138.96272905248</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>2580</v>
+      </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10253,11 +10643,15 @@
         <v>-18068.55042905248</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10286,11 +10680,15 @@
         <v>-18068.55042905248</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10319,11 +10717,17 @@
         <v>-17915.15446171502</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>2579</v>
+      </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10352,11 +10756,17 @@
         <v>-18026.34156171502</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>2584</v>
+      </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10385,11 +10795,17 @@
         <v>-18026.34156171502</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>2579</v>
+      </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10418,11 +10834,17 @@
         <v>-18025.34156171502</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>2579</v>
+      </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10451,11 +10873,17 @@
         <v>-18025.34156171502</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>2586</v>
+      </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10484,11 +10912,17 @@
         <v>-19253.22296171502</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>2586</v>
+      </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10517,11 +10951,17 @@
         <v>-19252.97296171502</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>2564</v>
+      </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10550,11 +10990,17 @@
         <v>-19252.47296171502</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>2572</v>
+      </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10583,11 +11029,17 @@
         <v>-19251.97296171502</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>2575</v>
+      </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10616,11 +11068,17 @@
         <v>-19251.72296171502</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>2576</v>
+      </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10649,11 +11107,17 @@
         <v>-19198.90066171502</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>2577</v>
+      </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10682,11 +11146,17 @@
         <v>-18779.79216171502</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>2578</v>
+      </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10719,7 +11189,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10752,7 +11226,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10785,7 +11263,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10818,7 +11300,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10851,7 +11337,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10884,7 +11374,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10917,7 +11411,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -10950,7 +11448,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -10983,7 +11485,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11016,7 +11522,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11049,7 +11559,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11082,7 +11596,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11115,7 +11633,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11148,7 +11670,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11181,7 +11707,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11214,7 +11744,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11247,7 +11781,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11280,7 +11818,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11313,7 +11855,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11346,7 +11892,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11379,7 +11929,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11412,7 +11966,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11445,7 +12003,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11478,7 +12040,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11511,7 +12077,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11544,7 +12114,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11577,7 +12151,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11610,7 +12188,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11643,7 +12225,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11676,7 +12262,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11709,7 +12299,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11742,7 +12336,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11775,7 +12373,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11808,7 +12410,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11841,7 +12447,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11874,7 +12484,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11907,7 +12521,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -11940,7 +12558,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -11973,7 +12595,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12006,7 +12632,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12039,7 +12669,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12072,7 +12706,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12105,7 +12743,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12138,7 +12780,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12171,7 +12817,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12204,7 +12854,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12237,7 +12891,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12270,7 +12928,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12303,7 +12965,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12336,7 +13002,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12369,7 +13039,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12398,11 +13072,17 @@
         <v>-21425.31974546115</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>2576</v>
+      </c>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12435,7 +13115,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12468,7 +13152,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12501,7 +13189,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12534,7 +13226,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12567,7 +13263,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12600,7 +13300,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12633,7 +13337,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12666,7 +13374,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12695,11 +13407,17 @@
         <v>-23456.88694546116</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
+        <v>2569</v>
+      </c>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12732,7 +13450,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12765,7 +13487,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12798,7 +13524,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12831,7 +13561,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12864,7 +13598,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12897,7 +13635,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -12930,7 +13672,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -12963,7 +13709,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -12992,11 +13742,17 @@
         <v>-22206.46204546115</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I381" t="n">
+        <v>2555</v>
+      </c>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13025,11 +13781,17 @@
         <v>-21433.28244546115</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I382" t="n">
+        <v>2557</v>
+      </c>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13058,11 +13820,17 @@
         <v>-21433.28244546115</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>2559</v>
+      </c>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13091,11 +13859,17 @@
         <v>-21433.28244546115</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I384" t="n">
+        <v>2559</v>
+      </c>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13128,7 +13902,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13161,7 +13939,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13190,11 +13972,17 @@
         <v>-22750.17254546116</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I387" t="n">
+        <v>2564</v>
+      </c>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13227,7 +14015,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13256,11 +14048,17 @@
         <v>-22726.45006276435</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I389" t="n">
+        <v>2561</v>
+      </c>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13293,7 +14091,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13322,11 +14124,17 @@
         <v>-22676.51756276435</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I391" t="n">
+        <v>2560</v>
+      </c>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13359,7 +14167,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13392,7 +14204,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13425,7 +14241,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13458,7 +14278,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13491,7 +14315,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13524,7 +14352,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13553,11 +14385,17 @@
         <v>-22139.34746276435</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>2554</v>
+      </c>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13586,11 +14424,17 @@
         <v>-22139.34746276435</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>2556</v>
+      </c>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13619,11 +14463,17 @@
         <v>-22249.57486276435</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>2556</v>
+      </c>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13652,11 +14502,17 @@
         <v>-22247.57486276435</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>2554</v>
+      </c>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13685,11 +14541,17 @@
         <v>-23415.11486276435</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>2561</v>
+      </c>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13718,11 +14580,17 @@
         <v>-23415.11486276435</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>2558</v>
+      </c>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13755,7 +14623,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13788,7 +14660,11 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13821,7 +14697,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13854,7 +14734,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13887,7 +14771,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -13920,7 +14808,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -13953,7 +14845,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -13986,7 +14882,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14019,7 +14919,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14052,7 +14956,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14085,7 +14993,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14118,7 +15030,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14151,7 +15067,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14184,7 +15104,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14213,11 +15137,17 @@
         <v>-19202.69546276435</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
-      </c>
-      <c r="I418" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I418" t="n">
+        <v>2558</v>
+      </c>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14250,7 +15180,11 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14283,7 +15217,11 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14316,7 +15254,11 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14349,7 +15291,11 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14382,7 +15328,11 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14415,7 +15365,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14448,7 +15402,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14477,11 +15435,17 @@
         <v>-21182.90066276435</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>2554</v>
+      </c>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14510,15 +15474,17 @@
         <v>-21656.59246276435</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I427" t="n">
         <v>2554</v>
       </c>
-      <c r="J427" t="n">
-        <v>2554</v>
-      </c>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14550,12 +15516,10 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>2554</v>
-      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L428" t="n">
@@ -14586,14 +15550,12 @@
         <v>-21385.95516276435</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I429" t="n">
         <v>2557</v>
       </c>
-      <c r="J429" t="n">
-        <v>2554</v>
-      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14627,14 +15589,12 @@
         <v>-21367.05086276435</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I430" t="n">
         <v>2561</v>
       </c>
-      <c r="J430" t="n">
-        <v>2554</v>
-      </c>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14671,9 +15631,7 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>2554</v>
-      </c>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14710,9 +15668,7 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>2554</v>
-      </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14746,12 +15702,12 @@
         <v>-21878.74506276435</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>2554</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>2561</v>
+      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14785,12 +15741,12 @@
         <v>-21878.74506276435</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>2554</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>2560</v>
+      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14824,12 +15780,12 @@
         <v>-20961.58936276435</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>2554</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>2560</v>
+      </c>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14863,12 +15819,12 @@
         <v>-18080.92936276435</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>2554</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>2565</v>
+      </c>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14905,9 +15861,7 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>2554</v>
-      </c>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14944,9 +15898,7 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>2554</v>
-      </c>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14983,9 +15935,7 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>2554</v>
-      </c>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15022,9 +15972,7 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>2554</v>
-      </c>
+      <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15061,9 +16009,7 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>2554</v>
-      </c>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15100,9 +16046,7 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>2554</v>
-      </c>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15139,9 +16083,7 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>2554</v>
-      </c>
+      <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15178,9 +16120,7 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>2554</v>
-      </c>
+      <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15217,9 +16157,7 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>2554</v>
-      </c>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15253,12 +16191,12 @@
         <v>-20172.76236276435</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>2554</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>2562</v>
+      </c>
+      <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15292,12 +16230,12 @@
         <v>-22585.24236276435</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>2554</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I447" t="n">
+        <v>2565</v>
+      </c>
+      <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15334,9 +16272,7 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>2554</v>
-      </c>
+      <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15373,9 +16309,7 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>2554</v>
-      </c>
+      <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15412,9 +16346,7 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>2554</v>
-      </c>
+      <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15451,9 +16383,7 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>2554</v>
-      </c>
+      <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15490,9 +16420,7 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>2554</v>
-      </c>
+      <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15529,9 +16457,7 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>2554</v>
-      </c>
+      <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15568,9 +16494,7 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>2554</v>
-      </c>
+      <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15607,9 +16531,7 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>2554</v>
-      </c>
+      <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15646,9 +16568,7 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>2554</v>
-      </c>
+      <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15685,9 +16605,7 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>2554</v>
-      </c>
+      <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15724,9 +16642,7 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>2554</v>
-      </c>
+      <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15763,9 +16679,7 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>2554</v>
-      </c>
+      <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15802,9 +16716,7 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>2554</v>
-      </c>
+      <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15841,9 +16753,7 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>2554</v>
-      </c>
+      <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15880,9 +16790,7 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>2554</v>
-      </c>
+      <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15919,9 +16827,7 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>2554</v>
-      </c>
+      <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15958,9 +16864,7 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>2554</v>
-      </c>
+      <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15994,12 +16898,12 @@
         <v>-26009.31886276435</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>2554</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>2551</v>
+      </c>
+      <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16036,9 +16940,7 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>2554</v>
-      </c>
+      <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16075,9 +16977,7 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>2554</v>
-      </c>
+      <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16114,9 +17014,7 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>2554</v>
-      </c>
+      <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16153,9 +17051,7 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>2554</v>
-      </c>
+      <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16192,9 +17088,7 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>2554</v>
-      </c>
+      <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16231,9 +17125,7 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>2554</v>
-      </c>
+      <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16270,9 +17162,7 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>2554</v>
-      </c>
+      <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16309,9 +17199,7 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>2554</v>
-      </c>
+      <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16345,12 +17233,12 @@
         <v>-27982.67756276434</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>2554</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I474" t="n">
+        <v>2546</v>
+      </c>
+      <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16387,9 +17275,7 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>2554</v>
-      </c>
+      <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16423,12 +17309,12 @@
         <v>-27982.67756276434</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>2554</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I476" t="n">
+        <v>2546</v>
+      </c>
+      <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16462,12 +17348,12 @@
         <v>-27982.67756276434</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
-      </c>
-      <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>2554</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I477" t="n">
+        <v>2546</v>
+      </c>
+      <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16501,12 +17387,12 @@
         <v>-27982.67756276434</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
-      </c>
-      <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>2554</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I478" t="n">
+        <v>2546</v>
+      </c>
+      <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16540,12 +17426,12 @@
         <v>-27981.67756276434</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
-      </c>
-      <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>2554</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I479" t="n">
+        <v>2546</v>
+      </c>
+      <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16579,12 +17465,12 @@
         <v>-28426.57436276434</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
-      </c>
-      <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>2554</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I480" t="n">
+        <v>2550</v>
+      </c>
+      <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16618,12 +17504,12 @@
         <v>-28425.57436276434</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
-      </c>
-      <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>2554</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I481" t="n">
+        <v>2546</v>
+      </c>
+      <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16657,12 +17543,12 @@
         <v>-28424.65736276434</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
-      </c>
-      <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>2554</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I482" t="n">
+        <v>2551</v>
+      </c>
+      <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16696,12 +17582,12 @@
         <v>-28584.88446276434</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
-      </c>
-      <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>2554</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I483" t="n">
+        <v>2552</v>
+      </c>
+      <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16735,12 +17621,12 @@
         <v>-28838.97506276434</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
-      </c>
-      <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>2554</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I484" t="n">
+        <v>2545</v>
+      </c>
+      <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16774,12 +17660,12 @@
         <v>-28767.27976276434</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
-      </c>
-      <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>2554</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I485" t="n">
+        <v>2542</v>
+      </c>
+      <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16813,12 +17699,12 @@
         <v>-28766.87976276434</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
-      </c>
-      <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>2554</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I486" t="n">
+        <v>2543</v>
+      </c>
+      <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16852,12 +17738,12 @@
         <v>-29062.37896276434</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
-      </c>
-      <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>2554</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I487" t="n">
+        <v>2552</v>
+      </c>
+      <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16891,12 +17777,12 @@
         <v>-28955.55936276434</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
-      </c>
-      <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>2554</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I488" t="n">
+        <v>2550</v>
+      </c>
+      <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16908,6 +17794,6 @@
       <c r="M488" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest LINK.xlsx
+++ b/BackTest/2020-01-13 BackTest LINK.xlsx
@@ -451,7 +451,7 @@
         <v>9941.231587348531</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>9563.927287348532</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>9213.927287348532</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>9382.923087348532</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>9579.930287348532</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>9693.986087348532</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>9741.847340443861</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>9242.950440443861</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>8416.722940443862</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>8416.722940443862</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>4997.050140443863</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>5063.336540443863</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>5392.809740443863</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>5365.143440443863</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>5349.394940443864</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>5148.750340443864</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>5298.637340443864</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>5115.808040443863</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>5175.895440443864</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>5080.092740443863</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-4866.863955515043</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-5023.668055515043</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-5023.668055515043</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-5022.668055515043</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-5021.668055515043</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-5020.668055515043</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-5021.668055515043</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-5020.668055515043</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-5020.668055515043</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-5019.668055515043</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-4950.390355515044</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-4950.390355515044</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-16100.64825169255</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-15736.27615169255</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-15736.27615169255</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-15712.97615169255</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-15712.97615169255</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-15541.27255169255</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-15149.71022905248</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-14433.26962905248</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-14433.26962905248</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-14432.26962905248</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-14432.89962905248</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-14324.81502905248</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-15009.92262905248</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-15009.92262905248</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-15009.92262905248</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-15009.92262905248</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-15009.92262905248</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-15009.92262905248</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-14198.75182905248</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-14198.75182905248</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-14198.75182905248</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-14198.75182905248</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-14199.00182905248</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-14198.75182905248</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-14254.57322905248</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-14444.57322905248</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-14444.57322905248</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-14440.27322905248</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-14440.27322905248</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-14450.27322905248</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-14610.99262905248</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-14610.99262905248</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-14586.25562905248</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-18138.96272905248</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-18068.55042905248</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-18068.55042905248</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-17915.15446171502</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-18026.34156171502</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-18026.34156171502</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-18025.34156171502</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-18025.34156171502</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-19253.22296171502</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-19252.97296171502</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-19252.47296171502</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-19251.97296171502</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-19251.72296171502</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-17297.28064546115</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-21467.52974546115</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -13354,14 +13354,10 @@
         <v>-22689.41176276435</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
-      </c>
-      <c r="I393" t="n">
-        <v>2560</v>
-      </c>
-      <c r="J393" t="n">
-        <v>2560</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
@@ -13394,14 +13390,8 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>2560</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13433,14 +13423,8 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>2560</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13502,14 +13486,10 @@
         <v>-22773.51676276435</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
-      </c>
-      <c r="I397" t="n">
-        <v>2556</v>
-      </c>
-      <c r="J397" t="n">
-        <v>2556</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I397" t="inlineStr"/>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
@@ -13539,3356 +13519,2856 @@
         <v>-22139.34746276435</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
-      </c>
-      <c r="I398" t="n">
+        <v>0</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
+      <c r="L398" t="n">
+        <v>1</v>
+      </c>
+      <c r="M398" t="inlineStr"/>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="n">
+        <v>397</v>
+      </c>
+      <c r="B399" t="n">
+        <v>2556</v>
+      </c>
+      <c r="C399" t="n">
+        <v>2556</v>
+      </c>
+      <c r="D399" t="n">
+        <v>2557</v>
+      </c>
+      <c r="E399" t="n">
+        <v>2556</v>
+      </c>
+      <c r="F399" t="n">
+        <v>116.156</v>
+      </c>
+      <c r="G399" t="n">
+        <v>-22139.34746276435</v>
+      </c>
+      <c r="H399" t="n">
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
+      <c r="L399" t="n">
+        <v>1</v>
+      </c>
+      <c r="M399" t="inlineStr"/>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="B400" t="n">
+        <v>2556</v>
+      </c>
+      <c r="C400" t="n">
         <v>2554</v>
       </c>
-      <c r="J398" t="n">
+      <c r="D400" t="n">
         <v>2556</v>
       </c>
-      <c r="K398" t="inlineStr">
+      <c r="E400" t="n">
+        <v>2554</v>
+      </c>
+      <c r="F400" t="n">
+        <v>110.2274</v>
+      </c>
+      <c r="G400" t="n">
+        <v>-22249.57486276435</v>
+      </c>
+      <c r="H400" t="n">
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
+      <c r="L400" t="n">
+        <v>1</v>
+      </c>
+      <c r="M400" t="inlineStr"/>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="B401" t="n">
+        <v>2559</v>
+      </c>
+      <c r="C401" t="n">
+        <v>2561</v>
+      </c>
+      <c r="D401" t="n">
+        <v>2561</v>
+      </c>
+      <c r="E401" t="n">
+        <v>2559</v>
+      </c>
+      <c r="F401" t="n">
+        <v>2</v>
+      </c>
+      <c r="G401" t="n">
+        <v>-22247.57486276435</v>
+      </c>
+      <c r="H401" t="n">
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
+      <c r="L401" t="n">
+        <v>1</v>
+      </c>
+      <c r="M401" t="inlineStr"/>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="B402" t="n">
+        <v>2558</v>
+      </c>
+      <c r="C402" t="n">
+        <v>2558</v>
+      </c>
+      <c r="D402" t="n">
+        <v>2558</v>
+      </c>
+      <c r="E402" t="n">
+        <v>2558</v>
+      </c>
+      <c r="F402" t="n">
+        <v>1167.54</v>
+      </c>
+      <c r="G402" t="n">
+        <v>-23415.11486276435</v>
+      </c>
+      <c r="H402" t="n">
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
+      <c r="L402" t="n">
+        <v>1</v>
+      </c>
+      <c r="M402" t="inlineStr"/>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="n">
+        <v>401</v>
+      </c>
+      <c r="B403" t="n">
+        <v>2561</v>
+      </c>
+      <c r="C403" t="n">
+        <v>2558</v>
+      </c>
+      <c r="D403" t="n">
+        <v>2561</v>
+      </c>
+      <c r="E403" t="n">
+        <v>2558</v>
+      </c>
+      <c r="F403" t="n">
+        <v>172.0579</v>
+      </c>
+      <c r="G403" t="n">
+        <v>-23415.11486276435</v>
+      </c>
+      <c r="H403" t="n">
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
+      <c r="L403" t="n">
+        <v>1</v>
+      </c>
+      <c r="M403" t="inlineStr"/>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="B404" t="n">
+        <v>2558</v>
+      </c>
+      <c r="C404" t="n">
+        <v>2558</v>
+      </c>
+      <c r="D404" t="n">
+        <v>2558</v>
+      </c>
+      <c r="E404" t="n">
+        <v>2558</v>
+      </c>
+      <c r="F404" t="n">
+        <v>520.8033</v>
+      </c>
+      <c r="G404" t="n">
+        <v>-23415.11486276435</v>
+      </c>
+      <c r="H404" t="n">
+        <v>0</v>
+      </c>
+      <c r="I404" t="inlineStr"/>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
+      <c r="L404" t="n">
+        <v>1</v>
+      </c>
+      <c r="M404" t="inlineStr"/>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="n">
+        <v>403</v>
+      </c>
+      <c r="B405" t="n">
+        <v>2563</v>
+      </c>
+      <c r="C405" t="n">
+        <v>2563</v>
+      </c>
+      <c r="D405" t="n">
+        <v>2563</v>
+      </c>
+      <c r="E405" t="n">
+        <v>2563</v>
+      </c>
+      <c r="F405" t="n">
+        <v>70.0551</v>
+      </c>
+      <c r="G405" t="n">
+        <v>-23345.05976276435</v>
+      </c>
+      <c r="H405" t="n">
+        <v>0</v>
+      </c>
+      <c r="I405" t="inlineStr"/>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
+      <c r="L405" t="n">
+        <v>1</v>
+      </c>
+      <c r="M405" t="inlineStr"/>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="n">
+        <v>404</v>
+      </c>
+      <c r="B406" t="n">
+        <v>2563</v>
+      </c>
+      <c r="C406" t="n">
+        <v>2563</v>
+      </c>
+      <c r="D406" t="n">
+        <v>2563</v>
+      </c>
+      <c r="E406" t="n">
+        <v>2563</v>
+      </c>
+      <c r="F406" t="n">
+        <v>85.08</v>
+      </c>
+      <c r="G406" t="n">
+        <v>-23345.05976276435</v>
+      </c>
+      <c r="H406" t="n">
+        <v>0</v>
+      </c>
+      <c r="I406" t="inlineStr"/>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
+      <c r="L406" t="n">
+        <v>1</v>
+      </c>
+      <c r="M406" t="inlineStr"/>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="n">
+        <v>405</v>
+      </c>
+      <c r="B407" t="n">
+        <v>2563</v>
+      </c>
+      <c r="C407" t="n">
+        <v>2563</v>
+      </c>
+      <c r="D407" t="n">
+        <v>2563</v>
+      </c>
+      <c r="E407" t="n">
+        <v>2563</v>
+      </c>
+      <c r="F407" t="n">
+        <v>210.1256</v>
+      </c>
+      <c r="G407" t="n">
+        <v>-23345.05976276435</v>
+      </c>
+      <c r="H407" t="n">
+        <v>0</v>
+      </c>
+      <c r="I407" t="inlineStr"/>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
+      <c r="L407" t="n">
+        <v>1</v>
+      </c>
+      <c r="M407" t="inlineStr"/>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="n">
+        <v>406</v>
+      </c>
+      <c r="B408" t="n">
+        <v>2563</v>
+      </c>
+      <c r="C408" t="n">
+        <v>2563</v>
+      </c>
+      <c r="D408" t="n">
+        <v>2563</v>
+      </c>
+      <c r="E408" t="n">
+        <v>2563</v>
+      </c>
+      <c r="F408" t="n">
+        <v>16.2648</v>
+      </c>
+      <c r="G408" t="n">
+        <v>-23345.05976276435</v>
+      </c>
+      <c r="H408" t="n">
+        <v>0</v>
+      </c>
+      <c r="I408" t="inlineStr"/>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
+      <c r="L408" t="n">
+        <v>1</v>
+      </c>
+      <c r="M408" t="inlineStr"/>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="n">
+        <v>407</v>
+      </c>
+      <c r="B409" t="n">
+        <v>2563</v>
+      </c>
+      <c r="C409" t="n">
+        <v>2563</v>
+      </c>
+      <c r="D409" t="n">
+        <v>2563</v>
+      </c>
+      <c r="E409" t="n">
+        <v>2563</v>
+      </c>
+      <c r="F409" t="n">
+        <v>181.5212</v>
+      </c>
+      <c r="G409" t="n">
+        <v>-23345.05976276435</v>
+      </c>
+      <c r="H409" t="n">
+        <v>0</v>
+      </c>
+      <c r="I409" t="inlineStr"/>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
+      <c r="L409" t="n">
+        <v>1</v>
+      </c>
+      <c r="M409" t="inlineStr"/>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="n">
+        <v>408</v>
+      </c>
+      <c r="B410" t="n">
+        <v>2563</v>
+      </c>
+      <c r="C410" t="n">
+        <v>2563</v>
+      </c>
+      <c r="D410" t="n">
+        <v>2563</v>
+      </c>
+      <c r="E410" t="n">
+        <v>2563</v>
+      </c>
+      <c r="F410" t="n">
+        <v>226.5016</v>
+      </c>
+      <c r="G410" t="n">
+        <v>-23345.05976276435</v>
+      </c>
+      <c r="H410" t="n">
+        <v>0</v>
+      </c>
+      <c r="I410" t="inlineStr"/>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
+      <c r="L410" t="n">
+        <v>1</v>
+      </c>
+      <c r="M410" t="inlineStr"/>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="n">
+        <v>409</v>
+      </c>
+      <c r="B411" t="n">
+        <v>2563</v>
+      </c>
+      <c r="C411" t="n">
+        <v>2563</v>
+      </c>
+      <c r="D411" t="n">
+        <v>2563</v>
+      </c>
+      <c r="E411" t="n">
+        <v>2563</v>
+      </c>
+      <c r="F411" t="n">
+        <v>95.6961</v>
+      </c>
+      <c r="G411" t="n">
+        <v>-23345.05976276435</v>
+      </c>
+      <c r="H411" t="n">
+        <v>0</v>
+      </c>
+      <c r="I411" t="inlineStr"/>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
+      <c r="L411" t="n">
+        <v>1</v>
+      </c>
+      <c r="M411" t="inlineStr"/>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="n">
+        <v>410</v>
+      </c>
+      <c r="B412" t="n">
+        <v>2563</v>
+      </c>
+      <c r="C412" t="n">
+        <v>2563</v>
+      </c>
+      <c r="D412" t="n">
+        <v>2563</v>
+      </c>
+      <c r="E412" t="n">
+        <v>2563</v>
+      </c>
+      <c r="F412" t="n">
+        <v>298.0492</v>
+      </c>
+      <c r="G412" t="n">
+        <v>-23345.05976276435</v>
+      </c>
+      <c r="H412" t="n">
+        <v>0</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
+      <c r="L412" t="n">
+        <v>1</v>
+      </c>
+      <c r="M412" t="inlineStr"/>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="n">
+        <v>411</v>
+      </c>
+      <c r="B413" t="n">
+        <v>2563</v>
+      </c>
+      <c r="C413" t="n">
+        <v>2563</v>
+      </c>
+      <c r="D413" t="n">
+        <v>2563</v>
+      </c>
+      <c r="E413" t="n">
+        <v>2563</v>
+      </c>
+      <c r="F413" t="n">
+        <v>50.496</v>
+      </c>
+      <c r="G413" t="n">
+        <v>-23345.05976276435</v>
+      </c>
+      <c r="H413" t="n">
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
+      <c r="L413" t="n">
+        <v>1</v>
+      </c>
+      <c r="M413" t="inlineStr"/>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="n">
+        <v>412</v>
+      </c>
+      <c r="B414" t="n">
+        <v>2559</v>
+      </c>
+      <c r="C414" t="n">
+        <v>2558</v>
+      </c>
+      <c r="D414" t="n">
+        <v>2559</v>
+      </c>
+      <c r="E414" t="n">
+        <v>2558</v>
+      </c>
+      <c r="F414" t="n">
+        <v>149.4782</v>
+      </c>
+      <c r="G414" t="n">
+        <v>-23494.53796276435</v>
+      </c>
+      <c r="H414" t="n">
+        <v>0</v>
+      </c>
+      <c r="I414" t="inlineStr"/>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
+      <c r="L414" t="n">
+        <v>1</v>
+      </c>
+      <c r="M414" t="inlineStr"/>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="n">
+        <v>413</v>
+      </c>
+      <c r="B415" t="n">
+        <v>2559</v>
+      </c>
+      <c r="C415" t="n">
+        <v>2559</v>
+      </c>
+      <c r="D415" t="n">
+        <v>2559</v>
+      </c>
+      <c r="E415" t="n">
+        <v>2559</v>
+      </c>
+      <c r="F415" t="n">
+        <v>222.7481</v>
+      </c>
+      <c r="G415" t="n">
+        <v>-23271.78986276435</v>
+      </c>
+      <c r="H415" t="n">
+        <v>0</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
+      <c r="L415" t="n">
+        <v>1</v>
+      </c>
+      <c r="M415" t="inlineStr"/>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="n">
+        <v>414</v>
+      </c>
+      <c r="B416" t="n">
+        <v>2559</v>
+      </c>
+      <c r="C416" t="n">
+        <v>2559</v>
+      </c>
+      <c r="D416" t="n">
+        <v>2559</v>
+      </c>
+      <c r="E416" t="n">
+        <v>2559</v>
+      </c>
+      <c r="F416" t="n">
+        <v>493.3399</v>
+      </c>
+      <c r="G416" t="n">
+        <v>-23271.78986276435</v>
+      </c>
+      <c r="H416" t="n">
+        <v>0</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
+      <c r="L416" t="n">
+        <v>1</v>
+      </c>
+      <c r="M416" t="inlineStr"/>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="n">
+        <v>415</v>
+      </c>
+      <c r="B417" t="n">
+        <v>2558</v>
+      </c>
+      <c r="C417" t="n">
+        <v>2558</v>
+      </c>
+      <c r="D417" t="n">
+        <v>2558</v>
+      </c>
+      <c r="E417" t="n">
+        <v>2558</v>
+      </c>
+      <c r="F417" t="n">
+        <v>238.5584</v>
+      </c>
+      <c r="G417" t="n">
+        <v>-23510.34826276435</v>
+      </c>
+      <c r="H417" t="n">
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
+      <c r="L417" t="n">
+        <v>1</v>
+      </c>
+      <c r="M417" t="inlineStr"/>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="n">
+        <v>416</v>
+      </c>
+      <c r="B418" t="n">
+        <v>2563</v>
+      </c>
+      <c r="C418" t="n">
+        <v>2564</v>
+      </c>
+      <c r="D418" t="n">
+        <v>2564</v>
+      </c>
+      <c r="E418" t="n">
+        <v>2563</v>
+      </c>
+      <c r="F418" t="n">
+        <v>4307.6528</v>
+      </c>
+      <c r="G418" t="n">
+        <v>-19202.69546276435</v>
+      </c>
+      <c r="H418" t="n">
+        <v>0</v>
+      </c>
+      <c r="I418" t="inlineStr"/>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
+      <c r="L418" t="n">
+        <v>1</v>
+      </c>
+      <c r="M418" t="inlineStr"/>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="n">
+        <v>417</v>
+      </c>
+      <c r="B419" t="n">
+        <v>2563</v>
+      </c>
+      <c r="C419" t="n">
+        <v>2563</v>
+      </c>
+      <c r="D419" t="n">
+        <v>2563</v>
+      </c>
+      <c r="E419" t="n">
+        <v>2563</v>
+      </c>
+      <c r="F419" t="n">
+        <v>74.4529</v>
+      </c>
+      <c r="G419" t="n">
+        <v>-19277.14836276435</v>
+      </c>
+      <c r="H419" t="n">
+        <v>0</v>
+      </c>
+      <c r="I419" t="inlineStr"/>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
+      <c r="L419" t="n">
+        <v>1</v>
+      </c>
+      <c r="M419" t="inlineStr"/>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="n">
+        <v>418</v>
+      </c>
+      <c r="B420" t="n">
+        <v>2563</v>
+      </c>
+      <c r="C420" t="n">
+        <v>2563</v>
+      </c>
+      <c r="D420" t="n">
+        <v>2563</v>
+      </c>
+      <c r="E420" t="n">
+        <v>2563</v>
+      </c>
+      <c r="F420" t="n">
+        <v>337.4382</v>
+      </c>
+      <c r="G420" t="n">
+        <v>-19277.14836276435</v>
+      </c>
+      <c r="H420" t="n">
+        <v>0</v>
+      </c>
+      <c r="I420" t="inlineStr"/>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
+      <c r="L420" t="n">
+        <v>1</v>
+      </c>
+      <c r="M420" t="inlineStr"/>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="n">
+        <v>419</v>
+      </c>
+      <c r="B421" t="n">
+        <v>2563</v>
+      </c>
+      <c r="C421" t="n">
+        <v>2563</v>
+      </c>
+      <c r="D421" t="n">
+        <v>2563</v>
+      </c>
+      <c r="E421" t="n">
+        <v>2563</v>
+      </c>
+      <c r="F421" t="n">
+        <v>85</v>
+      </c>
+      <c r="G421" t="n">
+        <v>-19277.14836276435</v>
+      </c>
+      <c r="H421" t="n">
+        <v>0</v>
+      </c>
+      <c r="I421" t="inlineStr"/>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
+      <c r="L421" t="n">
+        <v>1</v>
+      </c>
+      <c r="M421" t="inlineStr"/>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="n">
+        <v>420</v>
+      </c>
+      <c r="B422" t="n">
+        <v>2563</v>
+      </c>
+      <c r="C422" t="n">
+        <v>2563</v>
+      </c>
+      <c r="D422" t="n">
+        <v>2563</v>
+      </c>
+      <c r="E422" t="n">
+        <v>2563</v>
+      </c>
+      <c r="F422" t="n">
+        <v>135</v>
+      </c>
+      <c r="G422" t="n">
+        <v>-19277.14836276435</v>
+      </c>
+      <c r="H422" t="n">
+        <v>0</v>
+      </c>
+      <c r="I422" t="inlineStr"/>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
+      <c r="L422" t="n">
+        <v>1</v>
+      </c>
+      <c r="M422" t="inlineStr"/>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="n">
+        <v>421</v>
+      </c>
+      <c r="B423" t="n">
+        <v>2563</v>
+      </c>
+      <c r="C423" t="n">
+        <v>2559</v>
+      </c>
+      <c r="D423" t="n">
+        <v>2563</v>
+      </c>
+      <c r="E423" t="n">
+        <v>2559</v>
+      </c>
+      <c r="F423" t="n">
+        <v>1813.946</v>
+      </c>
+      <c r="G423" t="n">
+        <v>-21091.09436276435</v>
+      </c>
+      <c r="H423" t="n">
+        <v>0</v>
+      </c>
+      <c r="I423" t="inlineStr"/>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
+      <c r="L423" t="n">
+        <v>1</v>
+      </c>
+      <c r="M423" t="inlineStr"/>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="n">
+        <v>422</v>
+      </c>
+      <c r="B424" t="n">
+        <v>2558</v>
+      </c>
+      <c r="C424" t="n">
+        <v>2559</v>
+      </c>
+      <c r="D424" t="n">
+        <v>2559</v>
+      </c>
+      <c r="E424" t="n">
+        <v>2558</v>
+      </c>
+      <c r="F424" t="n">
+        <v>226.3064</v>
+      </c>
+      <c r="G424" t="n">
+        <v>-21091.09436276435</v>
+      </c>
+      <c r="H424" t="n">
+        <v>0</v>
+      </c>
+      <c r="I424" t="inlineStr"/>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
+      <c r="L424" t="n">
+        <v>1</v>
+      </c>
+      <c r="M424" t="inlineStr"/>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="n">
+        <v>423</v>
+      </c>
+      <c r="B425" t="n">
+        <v>2554</v>
+      </c>
+      <c r="C425" t="n">
+        <v>2554</v>
+      </c>
+      <c r="D425" t="n">
+        <v>2554</v>
+      </c>
+      <c r="E425" t="n">
+        <v>2554</v>
+      </c>
+      <c r="F425" t="n">
+        <v>91.80629999999999</v>
+      </c>
+      <c r="G425" t="n">
+        <v>-21182.90066276435</v>
+      </c>
+      <c r="H425" t="n">
+        <v>0</v>
+      </c>
+      <c r="I425" t="inlineStr"/>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
+      <c r="L425" t="n">
+        <v>1</v>
+      </c>
+      <c r="M425" t="inlineStr"/>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="n">
+        <v>424</v>
+      </c>
+      <c r="B426" t="n">
+        <v>2554</v>
+      </c>
+      <c r="C426" t="n">
+        <v>2554</v>
+      </c>
+      <c r="D426" t="n">
+        <v>2554</v>
+      </c>
+      <c r="E426" t="n">
+        <v>2554</v>
+      </c>
+      <c r="F426" t="n">
+        <v>330.72</v>
+      </c>
+      <c r="G426" t="n">
+        <v>-21182.90066276435</v>
+      </c>
+      <c r="H426" t="n">
+        <v>0</v>
+      </c>
+      <c r="I426" t="inlineStr"/>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
+      <c r="L426" t="n">
+        <v>1</v>
+      </c>
+      <c r="M426" t="inlineStr"/>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="n">
+        <v>425</v>
+      </c>
+      <c r="B427" t="n">
+        <v>2553</v>
+      </c>
+      <c r="C427" t="n">
+        <v>2553</v>
+      </c>
+      <c r="D427" t="n">
+        <v>2553</v>
+      </c>
+      <c r="E427" t="n">
+        <v>2553</v>
+      </c>
+      <c r="F427" t="n">
+        <v>473.6918</v>
+      </c>
+      <c r="G427" t="n">
+        <v>-21656.59246276435</v>
+      </c>
+      <c r="H427" t="n">
+        <v>0</v>
+      </c>
+      <c r="I427" t="inlineStr"/>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
+      <c r="L427" t="n">
+        <v>1</v>
+      </c>
+      <c r="M427" t="inlineStr"/>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="n">
+        <v>426</v>
+      </c>
+      <c r="B428" t="n">
+        <v>2553</v>
+      </c>
+      <c r="C428" t="n">
+        <v>2557</v>
+      </c>
+      <c r="D428" t="n">
+        <v>2559</v>
+      </c>
+      <c r="E428" t="n">
+        <v>2552</v>
+      </c>
+      <c r="F428" t="n">
+        <v>152.5318</v>
+      </c>
+      <c r="G428" t="n">
+        <v>-21504.06066276435</v>
+      </c>
+      <c r="H428" t="n">
+        <v>0</v>
+      </c>
+      <c r="I428" t="inlineStr"/>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
+      <c r="L428" t="n">
+        <v>1</v>
+      </c>
+      <c r="M428" t="inlineStr"/>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="n">
+        <v>427</v>
+      </c>
+      <c r="B429" t="n">
+        <v>2552</v>
+      </c>
+      <c r="C429" t="n">
+        <v>2561</v>
+      </c>
+      <c r="D429" t="n">
+        <v>2561</v>
+      </c>
+      <c r="E429" t="n">
+        <v>2552</v>
+      </c>
+      <c r="F429" t="n">
+        <v>118.1055</v>
+      </c>
+      <c r="G429" t="n">
+        <v>-21385.95516276435</v>
+      </c>
+      <c r="H429" t="n">
+        <v>0</v>
+      </c>
+      <c r="I429" t="inlineStr"/>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
+      <c r="L429" t="n">
+        <v>1</v>
+      </c>
+      <c r="M429" t="inlineStr"/>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="n">
+        <v>428</v>
+      </c>
+      <c r="B430" t="n">
+        <v>2567</v>
+      </c>
+      <c r="C430" t="n">
+        <v>2567</v>
+      </c>
+      <c r="D430" t="n">
+        <v>2567</v>
+      </c>
+      <c r="E430" t="n">
+        <v>2567</v>
+      </c>
+      <c r="F430" t="n">
+        <v>18.9043</v>
+      </c>
+      <c r="G430" t="n">
+        <v>-21367.05086276435</v>
+      </c>
+      <c r="H430" t="n">
+        <v>0</v>
+      </c>
+      <c r="I430" t="inlineStr"/>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
+      <c r="L430" t="n">
+        <v>1</v>
+      </c>
+      <c r="M430" t="inlineStr"/>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="n">
+        <v>429</v>
+      </c>
+      <c r="B431" t="n">
+        <v>2564</v>
+      </c>
+      <c r="C431" t="n">
+        <v>2564</v>
+      </c>
+      <c r="D431" t="n">
+        <v>2564</v>
+      </c>
+      <c r="E431" t="n">
+        <v>2564</v>
+      </c>
+      <c r="F431" t="n">
+        <v>1</v>
+      </c>
+      <c r="G431" t="n">
+        <v>-21368.05086276435</v>
+      </c>
+      <c r="H431" t="n">
+        <v>0</v>
+      </c>
+      <c r="I431" t="inlineStr"/>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
+      <c r="L431" t="n">
+        <v>1</v>
+      </c>
+      <c r="M431" t="inlineStr"/>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="n">
+        <v>430</v>
+      </c>
+      <c r="B432" t="n">
+        <v>2559</v>
+      </c>
+      <c r="C432" t="n">
+        <v>2561</v>
+      </c>
+      <c r="D432" t="n">
+        <v>2561</v>
+      </c>
+      <c r="E432" t="n">
+        <v>2559</v>
+      </c>
+      <c r="F432" t="n">
+        <v>135.0295</v>
+      </c>
+      <c r="G432" t="n">
+        <v>-21503.08036276435</v>
+      </c>
+      <c r="H432" t="n">
+        <v>0</v>
+      </c>
+      <c r="I432" t="inlineStr"/>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
+      <c r="L432" t="n">
+        <v>1</v>
+      </c>
+      <c r="M432" t="inlineStr"/>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="n">
+        <v>431</v>
+      </c>
+      <c r="B433" t="n">
+        <v>2560</v>
+      </c>
+      <c r="C433" t="n">
+        <v>2560</v>
+      </c>
+      <c r="D433" t="n">
+        <v>2560</v>
+      </c>
+      <c r="E433" t="n">
+        <v>2560</v>
+      </c>
+      <c r="F433" t="n">
+        <v>375.6647</v>
+      </c>
+      <c r="G433" t="n">
+        <v>-21878.74506276435</v>
+      </c>
+      <c r="H433" t="n">
+        <v>0</v>
+      </c>
+      <c r="I433" t="inlineStr"/>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
+      <c r="L433" t="n">
+        <v>1</v>
+      </c>
+      <c r="M433" t="inlineStr"/>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="n">
+        <v>432</v>
+      </c>
+      <c r="B434" t="n">
+        <v>2560</v>
+      </c>
+      <c r="C434" t="n">
+        <v>2560</v>
+      </c>
+      <c r="D434" t="n">
+        <v>2560</v>
+      </c>
+      <c r="E434" t="n">
+        <v>2560</v>
+      </c>
+      <c r="F434" t="n">
+        <v>244.2299</v>
+      </c>
+      <c r="G434" t="n">
+        <v>-21878.74506276435</v>
+      </c>
+      <c r="H434" t="n">
+        <v>0</v>
+      </c>
+      <c r="I434" t="inlineStr"/>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
+      <c r="L434" t="n">
+        <v>1</v>
+      </c>
+      <c r="M434" t="inlineStr"/>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="n">
+        <v>433</v>
+      </c>
+      <c r="B435" t="n">
+        <v>2565</v>
+      </c>
+      <c r="C435" t="n">
+        <v>2565</v>
+      </c>
+      <c r="D435" t="n">
+        <v>2565</v>
+      </c>
+      <c r="E435" t="n">
+        <v>2565</v>
+      </c>
+      <c r="F435" t="n">
+        <v>917.1557</v>
+      </c>
+      <c r="G435" t="n">
+        <v>-20961.58936276435</v>
+      </c>
+      <c r="H435" t="n">
+        <v>0</v>
+      </c>
+      <c r="I435" t="inlineStr"/>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
+      <c r="L435" t="n">
+        <v>1</v>
+      </c>
+      <c r="M435" t="inlineStr"/>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="B436" t="n">
+        <v>2561</v>
+      </c>
+      <c r="C436" t="n">
+        <v>2567</v>
+      </c>
+      <c r="D436" t="n">
+        <v>2567</v>
+      </c>
+      <c r="E436" t="n">
+        <v>2561</v>
+      </c>
+      <c r="F436" t="n">
+        <v>2880.66</v>
+      </c>
+      <c r="G436" t="n">
+        <v>-18080.92936276435</v>
+      </c>
+      <c r="H436" t="n">
+        <v>0</v>
+      </c>
+      <c r="I436" t="inlineStr"/>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
+      <c r="L436" t="n">
+        <v>1</v>
+      </c>
+      <c r="M436" t="inlineStr"/>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="n">
+        <v>435</v>
+      </c>
+      <c r="B437" t="n">
+        <v>2568</v>
+      </c>
+      <c r="C437" t="n">
+        <v>2569</v>
+      </c>
+      <c r="D437" t="n">
+        <v>2569</v>
+      </c>
+      <c r="E437" t="n">
+        <v>2568</v>
+      </c>
+      <c r="F437" t="n">
+        <v>418.4266</v>
+      </c>
+      <c r="G437" t="n">
+        <v>-17662.50276276435</v>
+      </c>
+      <c r="H437" t="n">
+        <v>0</v>
+      </c>
+      <c r="I437" t="inlineStr"/>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
+      <c r="L437" t="n">
+        <v>1</v>
+      </c>
+      <c r="M437" t="inlineStr"/>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="n">
+        <v>436</v>
+      </c>
+      <c r="B438" t="n">
+        <v>2569</v>
+      </c>
+      <c r="C438" t="n">
+        <v>2569</v>
+      </c>
+      <c r="D438" t="n">
+        <v>2570</v>
+      </c>
+      <c r="E438" t="n">
+        <v>2569</v>
+      </c>
+      <c r="F438" t="n">
+        <v>3119.0318</v>
+      </c>
+      <c r="G438" t="n">
+        <v>-17662.50276276435</v>
+      </c>
+      <c r="H438" t="n">
+        <v>0</v>
+      </c>
+      <c r="I438" t="inlineStr"/>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
+      <c r="L438" t="n">
+        <v>1</v>
+      </c>
+      <c r="M438" t="inlineStr"/>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="n">
+        <v>437</v>
+      </c>
+      <c r="B439" t="n">
+        <v>2569</v>
+      </c>
+      <c r="C439" t="n">
+        <v>2563</v>
+      </c>
+      <c r="D439" t="n">
+        <v>2570</v>
+      </c>
+      <c r="E439" t="n">
+        <v>2563</v>
+      </c>
+      <c r="F439" t="n">
+        <v>2891.1244</v>
+      </c>
+      <c r="G439" t="n">
+        <v>-20553.62716276435</v>
+      </c>
+      <c r="H439" t="n">
+        <v>0</v>
+      </c>
+      <c r="I439" t="inlineStr"/>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
+      <c r="L439" t="n">
+        <v>1</v>
+      </c>
+      <c r="M439" t="inlineStr"/>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="n">
+        <v>438</v>
+      </c>
+      <c r="B440" t="n">
+        <v>2563</v>
+      </c>
+      <c r="C440" t="n">
+        <v>2562</v>
+      </c>
+      <c r="D440" t="n">
+        <v>2566</v>
+      </c>
+      <c r="E440" t="n">
+        <v>2562</v>
+      </c>
+      <c r="F440" t="n">
+        <v>431.0652</v>
+      </c>
+      <c r="G440" t="n">
+        <v>-20984.69236276436</v>
+      </c>
+      <c r="H440" t="n">
+        <v>0</v>
+      </c>
+      <c r="I440" t="inlineStr"/>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
+      <c r="L440" t="n">
+        <v>1</v>
+      </c>
+      <c r="M440" t="inlineStr"/>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="n">
+        <v>439</v>
+      </c>
+      <c r="B441" t="n">
+        <v>2562</v>
+      </c>
+      <c r="C441" t="n">
+        <v>2563</v>
+      </c>
+      <c r="D441" t="n">
+        <v>2563</v>
+      </c>
+      <c r="E441" t="n">
+        <v>2562</v>
+      </c>
+      <c r="F441" t="n">
+        <v>243.1721</v>
+      </c>
+      <c r="G441" t="n">
+        <v>-20741.52026276436</v>
+      </c>
+      <c r="H441" t="n">
+        <v>0</v>
+      </c>
+      <c r="I441" t="inlineStr"/>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
+      <c r="L441" t="n">
+        <v>1</v>
+      </c>
+      <c r="M441" t="inlineStr"/>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="n">
+        <v>440</v>
+      </c>
+      <c r="B442" t="n">
+        <v>2563</v>
+      </c>
+      <c r="C442" t="n">
+        <v>2563</v>
+      </c>
+      <c r="D442" t="n">
+        <v>2563</v>
+      </c>
+      <c r="E442" t="n">
+        <v>2563</v>
+      </c>
+      <c r="F442" t="n">
+        <v>25</v>
+      </c>
+      <c r="G442" t="n">
+        <v>-20741.52026276436</v>
+      </c>
+      <c r="H442" t="n">
+        <v>0</v>
+      </c>
+      <c r="I442" t="inlineStr"/>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
+      <c r="L442" t="n">
+        <v>1</v>
+      </c>
+      <c r="M442" t="inlineStr"/>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="n">
+        <v>441</v>
+      </c>
+      <c r="B443" t="n">
+        <v>2562</v>
+      </c>
+      <c r="C443" t="n">
+        <v>2562</v>
+      </c>
+      <c r="D443" t="n">
+        <v>2563</v>
+      </c>
+      <c r="E443" t="n">
+        <v>2562</v>
+      </c>
+      <c r="F443" t="n">
+        <v>150</v>
+      </c>
+      <c r="G443" t="n">
+        <v>-20891.52026276436</v>
+      </c>
+      <c r="H443" t="n">
+        <v>0</v>
+      </c>
+      <c r="I443" t="inlineStr"/>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
+      <c r="L443" t="n">
+        <v>1</v>
+      </c>
+      <c r="M443" t="inlineStr"/>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="n">
+        <v>442</v>
+      </c>
+      <c r="B444" t="n">
+        <v>2564</v>
+      </c>
+      <c r="C444" t="n">
+        <v>2564</v>
+      </c>
+      <c r="D444" t="n">
+        <v>2564</v>
+      </c>
+      <c r="E444" t="n">
+        <v>2564</v>
+      </c>
+      <c r="F444" t="n">
+        <v>656.4968</v>
+      </c>
+      <c r="G444" t="n">
+        <v>-20235.02346276435</v>
+      </c>
+      <c r="H444" t="n">
+        <v>0</v>
+      </c>
+      <c r="I444" t="inlineStr"/>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
+      <c r="L444" t="n">
+        <v>1</v>
+      </c>
+      <c r="M444" t="inlineStr"/>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="n">
+        <v>443</v>
+      </c>
+      <c r="B445" t="n">
+        <v>2564</v>
+      </c>
+      <c r="C445" t="n">
+        <v>2562</v>
+      </c>
+      <c r="D445" t="n">
+        <v>2564</v>
+      </c>
+      <c r="E445" t="n">
+        <v>2562</v>
+      </c>
+      <c r="F445" t="n">
+        <v>65.6952</v>
+      </c>
+      <c r="G445" t="n">
+        <v>-20300.71866276435</v>
+      </c>
+      <c r="H445" t="n">
+        <v>0</v>
+      </c>
+      <c r="I445" t="inlineStr"/>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
+      <c r="L445" t="n">
+        <v>1</v>
+      </c>
+      <c r="M445" t="inlineStr"/>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="n">
+        <v>444</v>
+      </c>
+      <c r="B446" t="n">
+        <v>2565</v>
+      </c>
+      <c r="C446" t="n">
+        <v>2565</v>
+      </c>
+      <c r="D446" t="n">
+        <v>2565</v>
+      </c>
+      <c r="E446" t="n">
+        <v>2565</v>
+      </c>
+      <c r="F446" t="n">
+        <v>127.9563</v>
+      </c>
+      <c r="G446" t="n">
+        <v>-20172.76236276435</v>
+      </c>
+      <c r="H446" t="n">
+        <v>0</v>
+      </c>
+      <c r="I446" t="inlineStr"/>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
+      <c r="L446" t="n">
+        <v>1</v>
+      </c>
+      <c r="M446" t="inlineStr"/>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="n">
+        <v>445</v>
+      </c>
+      <c r="B447" t="n">
+        <v>2562</v>
+      </c>
+      <c r="C447" t="n">
+        <v>2562</v>
+      </c>
+      <c r="D447" t="n">
+        <v>2562</v>
+      </c>
+      <c r="E447" t="n">
+        <v>2562</v>
+      </c>
+      <c r="F447" t="n">
+        <v>2412.48</v>
+      </c>
+      <c r="G447" t="n">
+        <v>-22585.24236276435</v>
+      </c>
+      <c r="H447" t="n">
+        <v>0</v>
+      </c>
+      <c r="I447" t="inlineStr"/>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
+      <c r="L447" t="n">
+        <v>1</v>
+      </c>
+      <c r="M447" t="inlineStr"/>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="n">
+        <v>446</v>
+      </c>
+      <c r="B448" t="n">
+        <v>2562</v>
+      </c>
+      <c r="C448" t="n">
+        <v>2564</v>
+      </c>
+      <c r="D448" t="n">
+        <v>2564</v>
+      </c>
+      <c r="E448" t="n">
+        <v>2562</v>
+      </c>
+      <c r="F448" t="n">
+        <v>1036.889</v>
+      </c>
+      <c r="G448" t="n">
+        <v>-21548.35336276435</v>
+      </c>
+      <c r="H448" t="n">
+        <v>0</v>
+      </c>
+      <c r="I448" t="inlineStr"/>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
+      <c r="L448" t="n">
+        <v>1</v>
+      </c>
+      <c r="M448" t="inlineStr"/>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="n">
+        <v>447</v>
+      </c>
+      <c r="B449" t="n">
+        <v>2562</v>
+      </c>
+      <c r="C449" t="n">
+        <v>2562</v>
+      </c>
+      <c r="D449" t="n">
+        <v>2562</v>
+      </c>
+      <c r="E449" t="n">
+        <v>2562</v>
+      </c>
+      <c r="F449" t="n">
+        <v>76.99039999999999</v>
+      </c>
+      <c r="G449" t="n">
+        <v>-21625.34376276435</v>
+      </c>
+      <c r="H449" t="n">
+        <v>0</v>
+      </c>
+      <c r="I449" t="inlineStr"/>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
+      <c r="L449" t="n">
+        <v>1</v>
+      </c>
+      <c r="M449" t="inlineStr"/>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="n">
+        <v>448</v>
+      </c>
+      <c r="B450" t="n">
+        <v>2562</v>
+      </c>
+      <c r="C450" t="n">
+        <v>2561</v>
+      </c>
+      <c r="D450" t="n">
+        <v>2562</v>
+      </c>
+      <c r="E450" t="n">
+        <v>2560</v>
+      </c>
+      <c r="F450" t="n">
+        <v>1527.532</v>
+      </c>
+      <c r="G450" t="n">
+        <v>-23152.87576276435</v>
+      </c>
+      <c r="H450" t="n">
+        <v>0</v>
+      </c>
+      <c r="I450" t="inlineStr"/>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
+      <c r="L450" t="n">
+        <v>1</v>
+      </c>
+      <c r="M450" t="inlineStr"/>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="n">
+        <v>449</v>
+      </c>
+      <c r="B451" t="n">
+        <v>2560</v>
+      </c>
+      <c r="C451" t="n">
+        <v>2560</v>
+      </c>
+      <c r="D451" t="n">
+        <v>2560</v>
+      </c>
+      <c r="E451" t="n">
+        <v>2560</v>
+      </c>
+      <c r="F451" t="n">
+        <v>3006.8158</v>
+      </c>
+      <c r="G451" t="n">
+        <v>-26159.69156276435</v>
+      </c>
+      <c r="H451" t="n">
+        <v>0</v>
+      </c>
+      <c r="I451" t="inlineStr"/>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
+      <c r="L451" t="n">
+        <v>1</v>
+      </c>
+      <c r="M451" t="inlineStr"/>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="n">
+        <v>450</v>
+      </c>
+      <c r="B452" t="n">
+        <v>2561</v>
+      </c>
+      <c r="C452" t="n">
+        <v>2560</v>
+      </c>
+      <c r="D452" t="n">
+        <v>2561</v>
+      </c>
+      <c r="E452" t="n">
+        <v>2560</v>
+      </c>
+      <c r="F452" t="n">
+        <v>879.0513</v>
+      </c>
+      <c r="G452" t="n">
+        <v>-26159.69156276435</v>
+      </c>
+      <c r="H452" t="n">
+        <v>0</v>
+      </c>
+      <c r="I452" t="inlineStr"/>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
+      <c r="L452" t="n">
+        <v>1</v>
+      </c>
+      <c r="M452" t="inlineStr"/>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="n">
+        <v>451</v>
+      </c>
+      <c r="B453" t="n">
+        <v>2559</v>
+      </c>
+      <c r="C453" t="n">
+        <v>2559</v>
+      </c>
+      <c r="D453" t="n">
+        <v>2559</v>
+      </c>
+      <c r="E453" t="n">
+        <v>2559</v>
+      </c>
+      <c r="F453" t="n">
+        <v>59.18</v>
+      </c>
+      <c r="G453" t="n">
+        <v>-26218.87156276435</v>
+      </c>
+      <c r="H453" t="n">
+        <v>0</v>
+      </c>
+      <c r="I453" t="inlineStr"/>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
+      <c r="L453" t="n">
+        <v>1</v>
+      </c>
+      <c r="M453" t="inlineStr"/>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="n">
+        <v>452</v>
+      </c>
+      <c r="B454" t="n">
+        <v>2557</v>
+      </c>
+      <c r="C454" t="n">
+        <v>2557</v>
+      </c>
+      <c r="D454" t="n">
+        <v>2557</v>
+      </c>
+      <c r="E454" t="n">
+        <v>2557</v>
+      </c>
+      <c r="F454" t="n">
+        <v>4.6092</v>
+      </c>
+      <c r="G454" t="n">
+        <v>-26223.48076276435</v>
+      </c>
+      <c r="H454" t="n">
+        <v>0</v>
+      </c>
+      <c r="I454" t="inlineStr"/>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
+      <c r="L454" t="n">
+        <v>1</v>
+      </c>
+      <c r="M454" t="inlineStr"/>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="n">
+        <v>453</v>
+      </c>
+      <c r="B455" t="n">
+        <v>2556</v>
+      </c>
+      <c r="C455" t="n">
+        <v>2556</v>
+      </c>
+      <c r="D455" t="n">
+        <v>2556</v>
+      </c>
+      <c r="E455" t="n">
+        <v>2556</v>
+      </c>
+      <c r="F455" t="n">
+        <v>171.034</v>
+      </c>
+      <c r="G455" t="n">
+        <v>-26394.51476276435</v>
+      </c>
+      <c r="H455" t="n">
+        <v>0</v>
+      </c>
+      <c r="I455" t="inlineStr"/>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
+      <c r="L455" t="n">
+        <v>1</v>
+      </c>
+      <c r="M455" t="inlineStr"/>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="n">
+        <v>454</v>
+      </c>
+      <c r="B456" t="n">
+        <v>2556</v>
+      </c>
+      <c r="C456" t="n">
+        <v>2556</v>
+      </c>
+      <c r="D456" t="n">
+        <v>2556</v>
+      </c>
+      <c r="E456" t="n">
+        <v>2556</v>
+      </c>
+      <c r="F456" t="n">
+        <v>1167.321</v>
+      </c>
+      <c r="G456" t="n">
+        <v>-26394.51476276435</v>
+      </c>
+      <c r="H456" t="n">
+        <v>0</v>
+      </c>
+      <c r="I456" t="inlineStr"/>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
+      <c r="L456" t="n">
+        <v>1</v>
+      </c>
+      <c r="M456" t="inlineStr"/>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="n">
+        <v>455</v>
+      </c>
+      <c r="B457" t="n">
+        <v>2556</v>
+      </c>
+      <c r="C457" t="n">
+        <v>2556</v>
+      </c>
+      <c r="D457" t="n">
+        <v>2556</v>
+      </c>
+      <c r="E457" t="n">
+        <v>2556</v>
+      </c>
+      <c r="F457" t="n">
+        <v>108.2452</v>
+      </c>
+      <c r="G457" t="n">
+        <v>-26394.51476276435</v>
+      </c>
+      <c r="H457" t="n">
+        <v>0</v>
+      </c>
+      <c r="I457" t="inlineStr"/>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
+      <c r="L457" t="n">
+        <v>1</v>
+      </c>
+      <c r="M457" t="inlineStr"/>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="n">
+        <v>456</v>
+      </c>
+      <c r="B458" t="n">
+        <v>2552</v>
+      </c>
+      <c r="C458" t="n">
+        <v>2552</v>
+      </c>
+      <c r="D458" t="n">
+        <v>2552</v>
+      </c>
+      <c r="E458" t="n">
+        <v>2552</v>
+      </c>
+      <c r="F458" t="n">
+        <v>136.215</v>
+      </c>
+      <c r="G458" t="n">
+        <v>-26530.72976276435</v>
+      </c>
+      <c r="H458" t="n">
+        <v>0</v>
+      </c>
+      <c r="I458" t="inlineStr"/>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
+      <c r="L458" t="n">
+        <v>1</v>
+      </c>
+      <c r="M458" t="inlineStr"/>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="n">
+        <v>457</v>
+      </c>
+      <c r="B459" t="n">
+        <v>2552</v>
+      </c>
+      <c r="C459" t="n">
+        <v>2552</v>
+      </c>
+      <c r="D459" t="n">
+        <v>2552</v>
+      </c>
+      <c r="E459" t="n">
+        <v>2552</v>
+      </c>
+      <c r="F459" t="n">
+        <v>16.7832</v>
+      </c>
+      <c r="G459" t="n">
+        <v>-26530.72976276435</v>
+      </c>
+      <c r="H459" t="n">
+        <v>0</v>
+      </c>
+      <c r="I459" t="inlineStr"/>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
+      <c r="L459" t="n">
+        <v>1</v>
+      </c>
+      <c r="M459" t="inlineStr"/>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="n">
+        <v>458</v>
+      </c>
+      <c r="B460" t="n">
+        <v>2552</v>
+      </c>
+      <c r="C460" t="n">
+        <v>2547</v>
+      </c>
+      <c r="D460" t="n">
+        <v>2552</v>
+      </c>
+      <c r="E460" t="n">
+        <v>2547</v>
+      </c>
+      <c r="F460" t="n">
+        <v>626.1056</v>
+      </c>
+      <c r="G460" t="n">
+        <v>-27156.83536276435</v>
+      </c>
+      <c r="H460" t="n">
+        <v>0</v>
+      </c>
+      <c r="I460" t="inlineStr"/>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
+      <c r="L460" t="n">
+        <v>1</v>
+      </c>
+      <c r="M460" t="inlineStr"/>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="n">
+        <v>459</v>
+      </c>
+      <c r="B461" t="n">
+        <v>2552</v>
+      </c>
+      <c r="C461" t="n">
+        <v>2554</v>
+      </c>
+      <c r="D461" t="n">
+        <v>2554</v>
+      </c>
+      <c r="E461" t="n">
+        <v>2552</v>
+      </c>
+      <c r="F461" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="G461" t="n">
+        <v>-27155.17536276435</v>
+      </c>
+      <c r="H461" t="n">
+        <v>0</v>
+      </c>
+      <c r="I461" t="inlineStr"/>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
+      <c r="L461" t="n">
+        <v>1</v>
+      </c>
+      <c r="M461" t="inlineStr"/>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="n">
+        <v>460</v>
+      </c>
+      <c r="B462" t="n">
+        <v>2553</v>
+      </c>
+      <c r="C462" t="n">
+        <v>2553</v>
+      </c>
+      <c r="D462" t="n">
+        <v>2553</v>
+      </c>
+      <c r="E462" t="n">
+        <v>2553</v>
+      </c>
+      <c r="F462" t="n">
+        <v>160</v>
+      </c>
+      <c r="G462" t="n">
+        <v>-27315.17536276435</v>
+      </c>
+      <c r="H462" t="n">
+        <v>0</v>
+      </c>
+      <c r="I462" t="inlineStr"/>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
+      <c r="L462" t="n">
+        <v>1</v>
+      </c>
+      <c r="M462" t="inlineStr"/>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="n">
+        <v>461</v>
+      </c>
+      <c r="B463" t="n">
+        <v>2551</v>
+      </c>
+      <c r="C463" t="n">
+        <v>2547</v>
+      </c>
+      <c r="D463" t="n">
+        <v>2553</v>
+      </c>
+      <c r="E463" t="n">
+        <v>2547</v>
+      </c>
+      <c r="F463" t="n">
+        <v>353.1374</v>
+      </c>
+      <c r="G463" t="n">
+        <v>-27668.31276276435</v>
+      </c>
+      <c r="H463" t="n">
+        <v>0</v>
+      </c>
+      <c r="I463" t="inlineStr"/>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
+      <c r="L463" t="n">
+        <v>1</v>
+      </c>
+      <c r="M463" t="inlineStr"/>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="n">
+        <v>462</v>
+      </c>
+      <c r="B464" t="n">
+        <v>2551</v>
+      </c>
+      <c r="C464" t="n">
+        <v>2551</v>
+      </c>
+      <c r="D464" t="n">
+        <v>2551</v>
+      </c>
+      <c r="E464" t="n">
+        <v>2551</v>
+      </c>
+      <c r="F464" t="n">
+        <v>43.6512</v>
+      </c>
+      <c r="G464" t="n">
+        <v>-27624.66156276435</v>
+      </c>
+      <c r="H464" t="n">
+        <v>0</v>
+      </c>
+      <c r="I464" t="inlineStr"/>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
+      <c r="L464" t="n">
+        <v>1</v>
+      </c>
+      <c r="M464" t="inlineStr"/>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="n">
+        <v>463</v>
+      </c>
+      <c r="B465" t="n">
+        <v>2554</v>
+      </c>
+      <c r="C465" t="n">
+        <v>2554</v>
+      </c>
+      <c r="D465" t="n">
+        <v>2554</v>
+      </c>
+      <c r="E465" t="n">
+        <v>2554</v>
+      </c>
+      <c r="F465" t="n">
+        <v>1615.3427</v>
+      </c>
+      <c r="G465" t="n">
+        <v>-26009.31886276435</v>
+      </c>
+      <c r="H465" t="n">
+        <v>0</v>
+      </c>
+      <c r="I465" t="inlineStr"/>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
+      <c r="L465" t="n">
+        <v>1</v>
+      </c>
+      <c r="M465" t="inlineStr"/>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="n">
+        <v>464</v>
+      </c>
+      <c r="B466" t="n">
+        <v>2554</v>
+      </c>
+      <c r="C466" t="n">
+        <v>2553</v>
+      </c>
+      <c r="D466" t="n">
+        <v>2554</v>
+      </c>
+      <c r="E466" t="n">
+        <v>2553</v>
+      </c>
+      <c r="F466" t="n">
+        <v>653.6858</v>
+      </c>
+      <c r="G466" t="n">
+        <v>-26663.00466276435</v>
+      </c>
+      <c r="H466" t="n">
+        <v>0</v>
+      </c>
+      <c r="I466" t="inlineStr"/>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
+      <c r="L466" t="n">
+        <v>1</v>
+      </c>
+      <c r="M466" t="inlineStr"/>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="n">
+        <v>465</v>
+      </c>
+      <c r="B467" t="n">
+        <v>2553</v>
+      </c>
+      <c r="C467" t="n">
+        <v>2550</v>
+      </c>
+      <c r="D467" t="n">
+        <v>2553</v>
+      </c>
+      <c r="E467" t="n">
+        <v>2550</v>
+      </c>
+      <c r="F467" t="n">
+        <v>120.1795</v>
+      </c>
+      <c r="G467" t="n">
+        <v>-26783.18416276434</v>
+      </c>
+      <c r="H467" t="n">
+        <v>0</v>
+      </c>
+      <c r="I467" t="inlineStr"/>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
+      <c r="L467" t="n">
+        <v>1</v>
+      </c>
+      <c r="M467" t="inlineStr"/>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="n">
+        <v>466</v>
+      </c>
+      <c r="B468" t="n">
+        <v>2550</v>
+      </c>
+      <c r="C468" t="n">
+        <v>2550</v>
+      </c>
+      <c r="D468" t="n">
+        <v>2550</v>
+      </c>
+      <c r="E468" t="n">
+        <v>2550</v>
+      </c>
+      <c r="F468" t="n">
+        <v>12.5549</v>
+      </c>
+      <c r="G468" t="n">
+        <v>-26783.18416276434</v>
+      </c>
+      <c r="H468" t="n">
+        <v>0</v>
+      </c>
+      <c r="I468" t="inlineStr"/>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
+      <c r="L468" t="n">
+        <v>1</v>
+      </c>
+      <c r="M468" t="inlineStr"/>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="n">
+        <v>467</v>
+      </c>
+      <c r="B469" t="n">
+        <v>2549</v>
+      </c>
+      <c r="C469" t="n">
+        <v>2544</v>
+      </c>
+      <c r="D469" t="n">
+        <v>2549</v>
+      </c>
+      <c r="E469" t="n">
+        <v>2544</v>
+      </c>
+      <c r="F469" t="n">
+        <v>1488.4331</v>
+      </c>
+      <c r="G469" t="n">
+        <v>-28271.61726276434</v>
+      </c>
+      <c r="H469" t="n">
+        <v>0</v>
+      </c>
+      <c r="I469" t="inlineStr"/>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
+      <c r="L469" t="n">
+        <v>1</v>
+      </c>
+      <c r="M469" t="inlineStr"/>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="n">
+        <v>468</v>
+      </c>
+      <c r="B470" t="n">
+        <v>2544</v>
+      </c>
+      <c r="C470" t="n">
+        <v>2544</v>
+      </c>
+      <c r="D470" t="n">
+        <v>2544</v>
+      </c>
+      <c r="E470" t="n">
+        <v>2544</v>
+      </c>
+      <c r="F470" t="n">
+        <v>28.5124</v>
+      </c>
+      <c r="G470" t="n">
+        <v>-28271.61726276434</v>
+      </c>
+      <c r="H470" t="n">
+        <v>0</v>
+      </c>
+      <c r="I470" t="inlineStr"/>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
+      <c r="L470" t="n">
+        <v>1</v>
+      </c>
+      <c r="M470" t="inlineStr"/>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="n">
+        <v>469</v>
+      </c>
+      <c r="B471" t="n">
+        <v>2545</v>
+      </c>
+      <c r="C471" t="n">
+        <v>2544</v>
+      </c>
+      <c r="D471" t="n">
+        <v>2545</v>
+      </c>
+      <c r="E471" t="n">
+        <v>2544</v>
+      </c>
+      <c r="F471" t="n">
+        <v>1369.9146</v>
+      </c>
+      <c r="G471" t="n">
+        <v>-28271.61726276434</v>
+      </c>
+      <c r="H471" t="n">
+        <v>0</v>
+      </c>
+      <c r="I471" t="inlineStr"/>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
+      <c r="L471" t="n">
+        <v>1</v>
+      </c>
+      <c r="M471" t="inlineStr"/>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="n">
+        <v>470</v>
+      </c>
+      <c r="B472" t="n">
+        <v>2546</v>
+      </c>
+      <c r="C472" t="n">
+        <v>2546</v>
+      </c>
+      <c r="D472" t="n">
+        <v>2546</v>
+      </c>
+      <c r="E472" t="n">
+        <v>2546</v>
+      </c>
+      <c r="F472" t="n">
+        <v>288.9397</v>
+      </c>
+      <c r="G472" t="n">
+        <v>-27982.67756276434</v>
+      </c>
+      <c r="H472" t="n">
+        <v>0</v>
+      </c>
+      <c r="I472" t="inlineStr"/>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
+      <c r="L472" t="n">
+        <v>1</v>
+      </c>
+      <c r="M472" t="inlineStr"/>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="n">
+        <v>471</v>
+      </c>
+      <c r="B473" t="n">
+        <v>2546</v>
+      </c>
+      <c r="C473" t="n">
+        <v>2546</v>
+      </c>
+      <c r="D473" t="n">
+        <v>2546</v>
+      </c>
+      <c r="E473" t="n">
+        <v>2546</v>
+      </c>
+      <c r="F473" t="n">
+        <v>12</v>
+      </c>
+      <c r="G473" t="n">
+        <v>-27982.67756276434</v>
+      </c>
+      <c r="H473" t="n">
+        <v>0</v>
+      </c>
+      <c r="I473" t="inlineStr"/>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
+      <c r="L473" t="n">
+        <v>1</v>
+      </c>
+      <c r="M473" t="inlineStr"/>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="n">
+        <v>472</v>
+      </c>
+      <c r="B474" t="n">
+        <v>2546</v>
+      </c>
+      <c r="C474" t="n">
+        <v>2546</v>
+      </c>
+      <c r="D474" t="n">
+        <v>2546</v>
+      </c>
+      <c r="E474" t="n">
+        <v>2546</v>
+      </c>
+      <c r="F474" t="n">
+        <v>80.2212</v>
+      </c>
+      <c r="G474" t="n">
+        <v>-27982.67756276434</v>
+      </c>
+      <c r="H474" t="n">
+        <v>0</v>
+      </c>
+      <c r="I474" t="inlineStr"/>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
+      <c r="L474" t="n">
+        <v>1</v>
+      </c>
+      <c r="M474" t="inlineStr"/>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="n">
+        <v>473</v>
+      </c>
+      <c r="B475" t="n">
+        <v>2546</v>
+      </c>
+      <c r="C475" t="n">
+        <v>2546</v>
+      </c>
+      <c r="D475" t="n">
+        <v>2546</v>
+      </c>
+      <c r="E475" t="n">
+        <v>2546</v>
+      </c>
+      <c r="F475" t="n">
+        <v>150</v>
+      </c>
+      <c r="G475" t="n">
+        <v>-27982.67756276434</v>
+      </c>
+      <c r="H475" t="n">
+        <v>0</v>
+      </c>
+      <c r="I475" t="inlineStr"/>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
+      <c r="L475" t="n">
+        <v>1</v>
+      </c>
+      <c r="M475" t="inlineStr"/>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="n">
+        <v>474</v>
+      </c>
+      <c r="B476" t="n">
+        <v>2546</v>
+      </c>
+      <c r="C476" t="n">
+        <v>2546</v>
+      </c>
+      <c r="D476" t="n">
+        <v>2546</v>
+      </c>
+      <c r="E476" t="n">
+        <v>2546</v>
+      </c>
+      <c r="F476" t="n">
+        <v>352.4077</v>
+      </c>
+      <c r="G476" t="n">
+        <v>-27982.67756276434</v>
+      </c>
+      <c r="H476" t="n">
+        <v>0</v>
+      </c>
+      <c r="I476" t="inlineStr"/>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
+      <c r="L476" t="n">
+        <v>1</v>
+      </c>
+      <c r="M476" t="inlineStr"/>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="n">
+        <v>475</v>
+      </c>
+      <c r="B477" t="n">
+        <v>2546</v>
+      </c>
+      <c r="C477" t="n">
+        <v>2546</v>
+      </c>
+      <c r="D477" t="n">
+        <v>2546</v>
+      </c>
+      <c r="E477" t="n">
+        <v>2546</v>
+      </c>
+      <c r="F477" t="n">
+        <v>96.4224</v>
+      </c>
+      <c r="G477" t="n">
+        <v>-27982.67756276434</v>
+      </c>
+      <c r="H477" t="n">
+        <v>0</v>
+      </c>
+      <c r="I477" t="inlineStr"/>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
+      <c r="L477" t="n">
+        <v>1</v>
+      </c>
+      <c r="M477" t="inlineStr"/>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="n">
+        <v>476</v>
+      </c>
+      <c r="B478" t="n">
+        <v>2546</v>
+      </c>
+      <c r="C478" t="n">
+        <v>2546</v>
+      </c>
+      <c r="D478" t="n">
+        <v>2546</v>
+      </c>
+      <c r="E478" t="n">
+        <v>2546</v>
+      </c>
+      <c r="F478" t="n">
+        <v>126.5397</v>
+      </c>
+      <c r="G478" t="n">
+        <v>-27982.67756276434</v>
+      </c>
+      <c r="H478" t="n">
+        <v>1</v>
+      </c>
+      <c r="I478" t="n">
+        <v>2546</v>
+      </c>
+      <c r="J478" t="n">
+        <v>2546</v>
+      </c>
+      <c r="K478" t="inlineStr"/>
+      <c r="L478" t="n">
+        <v>1</v>
+      </c>
+      <c r="M478" t="inlineStr"/>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="n">
+        <v>477</v>
+      </c>
+      <c r="B479" t="n">
+        <v>2550</v>
+      </c>
+      <c r="C479" t="n">
+        <v>2550</v>
+      </c>
+      <c r="D479" t="n">
+        <v>2550</v>
+      </c>
+      <c r="E479" t="n">
+        <v>2550</v>
+      </c>
+      <c r="F479" t="n">
+        <v>1</v>
+      </c>
+      <c r="G479" t="n">
+        <v>-27981.67756276434</v>
+      </c>
+      <c r="H479" t="n">
+        <v>1</v>
+      </c>
+      <c r="I479" t="n">
+        <v>2546</v>
+      </c>
+      <c r="J479" t="n">
+        <v>2546</v>
+      </c>
+      <c r="K479" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L398" t="n">
-        <v>1</v>
-      </c>
-      <c r="M398" t="inlineStr"/>
-    </row>
-    <row r="399">
-      <c r="A399" s="1" t="n">
-        <v>397</v>
-      </c>
-      <c r="B399" t="n">
-        <v>2556</v>
-      </c>
-      <c r="C399" t="n">
-        <v>2556</v>
-      </c>
-      <c r="D399" t="n">
-        <v>2557</v>
-      </c>
-      <c r="E399" t="n">
-        <v>2556</v>
-      </c>
-      <c r="F399" t="n">
-        <v>116.156</v>
-      </c>
-      <c r="G399" t="n">
-        <v>-22139.34746276435</v>
-      </c>
-      <c r="H399" t="n">
-        <v>1</v>
-      </c>
-      <c r="I399" t="n">
-        <v>2556</v>
-      </c>
-      <c r="J399" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K399" t="inlineStr">
+      <c r="L479" t="n">
+        <v>1</v>
+      </c>
+      <c r="M479" t="inlineStr"/>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="n">
+        <v>478</v>
+      </c>
+      <c r="B480" t="n">
+        <v>2546</v>
+      </c>
+      <c r="C480" t="n">
+        <v>2546</v>
+      </c>
+      <c r="D480" t="n">
+        <v>2546</v>
+      </c>
+      <c r="E480" t="n">
+        <v>2546</v>
+      </c>
+      <c r="F480" t="n">
+        <v>444.8968</v>
+      </c>
+      <c r="G480" t="n">
+        <v>-28426.57436276434</v>
+      </c>
+      <c r="H480" t="n">
+        <v>1</v>
+      </c>
+      <c r="I480" t="n">
+        <v>2550</v>
+      </c>
+      <c r="J480" t="n">
+        <v>2546</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L480" t="n">
+        <v>1</v>
+      </c>
+      <c r="M480" t="inlineStr"/>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="n">
+        <v>479</v>
+      </c>
+      <c r="B481" t="n">
+        <v>2551</v>
+      </c>
+      <c r="C481" t="n">
+        <v>2551</v>
+      </c>
+      <c r="D481" t="n">
+        <v>2551</v>
+      </c>
+      <c r="E481" t="n">
+        <v>2551</v>
+      </c>
+      <c r="F481" t="n">
+        <v>1</v>
+      </c>
+      <c r="G481" t="n">
+        <v>-28425.57436276434</v>
+      </c>
+      <c r="H481" t="n">
+        <v>1</v>
+      </c>
+      <c r="I481" t="n">
+        <v>2546</v>
+      </c>
+      <c r="J481" t="n">
+        <v>2546</v>
+      </c>
+      <c r="K481" t="inlineStr"/>
+      <c r="L481" t="n">
+        <v>1</v>
+      </c>
+      <c r="M481" t="inlineStr"/>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="B482" t="n">
+        <v>2552</v>
+      </c>
+      <c r="C482" t="n">
+        <v>2552</v>
+      </c>
+      <c r="D482" t="n">
+        <v>2552</v>
+      </c>
+      <c r="E482" t="n">
+        <v>2552</v>
+      </c>
+      <c r="F482" t="n">
+        <v>0.917</v>
+      </c>
+      <c r="G482" t="n">
+        <v>-28424.65736276434</v>
+      </c>
+      <c r="H482" t="n">
+        <v>1</v>
+      </c>
+      <c r="I482" t="n">
+        <v>2551</v>
+      </c>
+      <c r="J482" t="n">
+        <v>2546</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L482" t="n">
+        <v>1</v>
+      </c>
+      <c r="M482" t="inlineStr"/>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="B483" t="n">
+        <v>2547</v>
+      </c>
+      <c r="C483" t="n">
+        <v>2545</v>
+      </c>
+      <c r="D483" t="n">
+        <v>2547</v>
+      </c>
+      <c r="E483" t="n">
+        <v>2545</v>
+      </c>
+      <c r="F483" t="n">
+        <v>160.2271</v>
+      </c>
+      <c r="G483" t="n">
+        <v>-28584.88446276434</v>
+      </c>
+      <c r="H483" t="n">
+        <v>1</v>
+      </c>
+      <c r="I483" t="n">
+        <v>2552</v>
+      </c>
+      <c r="J483" t="n">
+        <v>2546</v>
+      </c>
+      <c r="K483" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L399" t="n">
-        <v>1</v>
-      </c>
-      <c r="M399" t="inlineStr"/>
-    </row>
-    <row r="400">
-      <c r="A400" s="1" t="n">
-        <v>398</v>
-      </c>
-      <c r="B400" t="n">
-        <v>2556</v>
-      </c>
-      <c r="C400" t="n">
-        <v>2554</v>
-      </c>
-      <c r="D400" t="n">
-        <v>2556</v>
-      </c>
-      <c r="E400" t="n">
-        <v>2554</v>
-      </c>
-      <c r="F400" t="n">
-        <v>110.2274</v>
-      </c>
-      <c r="G400" t="n">
-        <v>-22249.57486276435</v>
-      </c>
-      <c r="H400" t="n">
-        <v>1</v>
-      </c>
-      <c r="I400" t="n">
-        <v>2556</v>
-      </c>
-      <c r="J400" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L400" t="n">
-        <v>1</v>
-      </c>
-      <c r="M400" t="inlineStr"/>
-    </row>
-    <row r="401">
-      <c r="A401" s="1" t="n">
-        <v>399</v>
-      </c>
-      <c r="B401" t="n">
-        <v>2559</v>
-      </c>
-      <c r="C401" t="n">
-        <v>2561</v>
-      </c>
-      <c r="D401" t="n">
-        <v>2561</v>
-      </c>
-      <c r="E401" t="n">
-        <v>2559</v>
-      </c>
-      <c r="F401" t="n">
-        <v>2</v>
-      </c>
-      <c r="G401" t="n">
-        <v>-22247.57486276435</v>
-      </c>
-      <c r="H401" t="n">
-        <v>1</v>
-      </c>
-      <c r="I401" t="n">
-        <v>2554</v>
-      </c>
-      <c r="J401" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L401" t="n">
-        <v>1</v>
-      </c>
-      <c r="M401" t="inlineStr"/>
-    </row>
-    <row r="402">
-      <c r="A402" s="1" t="n">
-        <v>400</v>
-      </c>
-      <c r="B402" t="n">
-        <v>2558</v>
-      </c>
-      <c r="C402" t="n">
-        <v>2558</v>
-      </c>
-      <c r="D402" t="n">
-        <v>2558</v>
-      </c>
-      <c r="E402" t="n">
-        <v>2558</v>
-      </c>
-      <c r="F402" t="n">
-        <v>1167.54</v>
-      </c>
-      <c r="G402" t="n">
-        <v>-23415.11486276435</v>
-      </c>
-      <c r="H402" t="n">
-        <v>1</v>
-      </c>
-      <c r="I402" t="n">
-        <v>2561</v>
-      </c>
-      <c r="J402" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L402" t="n">
-        <v>1</v>
-      </c>
-      <c r="M402" t="inlineStr"/>
-    </row>
-    <row r="403">
-      <c r="A403" s="1" t="n">
-        <v>401</v>
-      </c>
-      <c r="B403" t="n">
-        <v>2561</v>
-      </c>
-      <c r="C403" t="n">
-        <v>2558</v>
-      </c>
-      <c r="D403" t="n">
-        <v>2561</v>
-      </c>
-      <c r="E403" t="n">
-        <v>2558</v>
-      </c>
-      <c r="F403" t="n">
-        <v>172.0579</v>
-      </c>
-      <c r="G403" t="n">
-        <v>-23415.11486276435</v>
-      </c>
-      <c r="H403" t="n">
-        <v>1</v>
-      </c>
-      <c r="I403" t="n">
-        <v>2558</v>
-      </c>
-      <c r="J403" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L403" t="n">
-        <v>1</v>
-      </c>
-      <c r="M403" t="inlineStr"/>
-    </row>
-    <row r="404">
-      <c r="A404" s="1" t="n">
-        <v>402</v>
-      </c>
-      <c r="B404" t="n">
-        <v>2558</v>
-      </c>
-      <c r="C404" t="n">
-        <v>2558</v>
-      </c>
-      <c r="D404" t="n">
-        <v>2558</v>
-      </c>
-      <c r="E404" t="n">
-        <v>2558</v>
-      </c>
-      <c r="F404" t="n">
-        <v>520.8033</v>
-      </c>
-      <c r="G404" t="n">
-        <v>-23415.11486276435</v>
-      </c>
-      <c r="H404" t="n">
-        <v>1</v>
-      </c>
-      <c r="I404" t="n">
-        <v>2558</v>
-      </c>
-      <c r="J404" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L404" t="n">
-        <v>1</v>
-      </c>
-      <c r="M404" t="inlineStr"/>
-    </row>
-    <row r="405">
-      <c r="A405" s="1" t="n">
-        <v>403</v>
-      </c>
-      <c r="B405" t="n">
-        <v>2563</v>
-      </c>
-      <c r="C405" t="n">
-        <v>2563</v>
-      </c>
-      <c r="D405" t="n">
-        <v>2563</v>
-      </c>
-      <c r="E405" t="n">
-        <v>2563</v>
-      </c>
-      <c r="F405" t="n">
-        <v>70.0551</v>
-      </c>
-      <c r="G405" t="n">
-        <v>-23345.05976276435</v>
-      </c>
-      <c r="H405" t="n">
-        <v>1</v>
-      </c>
-      <c r="I405" t="n">
-        <v>2558</v>
-      </c>
-      <c r="J405" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L405" t="n">
-        <v>1</v>
-      </c>
-      <c r="M405" t="inlineStr"/>
-    </row>
-    <row r="406">
-      <c r="A406" s="1" t="n">
-        <v>404</v>
-      </c>
-      <c r="B406" t="n">
-        <v>2563</v>
-      </c>
-      <c r="C406" t="n">
-        <v>2563</v>
-      </c>
-      <c r="D406" t="n">
-        <v>2563</v>
-      </c>
-      <c r="E406" t="n">
-        <v>2563</v>
-      </c>
-      <c r="F406" t="n">
-        <v>85.08</v>
-      </c>
-      <c r="G406" t="n">
-        <v>-23345.05976276435</v>
-      </c>
-      <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L406" t="n">
-        <v>1</v>
-      </c>
-      <c r="M406" t="inlineStr"/>
-    </row>
-    <row r="407">
-      <c r="A407" s="1" t="n">
-        <v>405</v>
-      </c>
-      <c r="B407" t="n">
-        <v>2563</v>
-      </c>
-      <c r="C407" t="n">
-        <v>2563</v>
-      </c>
-      <c r="D407" t="n">
-        <v>2563</v>
-      </c>
-      <c r="E407" t="n">
-        <v>2563</v>
-      </c>
-      <c r="F407" t="n">
-        <v>210.1256</v>
-      </c>
-      <c r="G407" t="n">
-        <v>-23345.05976276435</v>
-      </c>
-      <c r="H407" t="n">
-        <v>0</v>
-      </c>
-      <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L407" t="n">
-        <v>1</v>
-      </c>
-      <c r="M407" t="inlineStr"/>
-    </row>
-    <row r="408">
-      <c r="A408" s="1" t="n">
-        <v>406</v>
-      </c>
-      <c r="B408" t="n">
-        <v>2563</v>
-      </c>
-      <c r="C408" t="n">
-        <v>2563</v>
-      </c>
-      <c r="D408" t="n">
-        <v>2563</v>
-      </c>
-      <c r="E408" t="n">
-        <v>2563</v>
-      </c>
-      <c r="F408" t="n">
-        <v>16.2648</v>
-      </c>
-      <c r="G408" t="n">
-        <v>-23345.05976276435</v>
-      </c>
-      <c r="H408" t="n">
-        <v>0</v>
-      </c>
-      <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L408" t="n">
-        <v>1</v>
-      </c>
-      <c r="M408" t="inlineStr"/>
-    </row>
-    <row r="409">
-      <c r="A409" s="1" t="n">
-        <v>407</v>
-      </c>
-      <c r="B409" t="n">
-        <v>2563</v>
-      </c>
-      <c r="C409" t="n">
-        <v>2563</v>
-      </c>
-      <c r="D409" t="n">
-        <v>2563</v>
-      </c>
-      <c r="E409" t="n">
-        <v>2563</v>
-      </c>
-      <c r="F409" t="n">
-        <v>181.5212</v>
-      </c>
-      <c r="G409" t="n">
-        <v>-23345.05976276435</v>
-      </c>
-      <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L409" t="n">
-        <v>1</v>
-      </c>
-      <c r="M409" t="inlineStr"/>
-    </row>
-    <row r="410">
-      <c r="A410" s="1" t="n">
-        <v>408</v>
-      </c>
-      <c r="B410" t="n">
-        <v>2563</v>
-      </c>
-      <c r="C410" t="n">
-        <v>2563</v>
-      </c>
-      <c r="D410" t="n">
-        <v>2563</v>
-      </c>
-      <c r="E410" t="n">
-        <v>2563</v>
-      </c>
-      <c r="F410" t="n">
-        <v>226.5016</v>
-      </c>
-      <c r="G410" t="n">
-        <v>-23345.05976276435</v>
-      </c>
-      <c r="H410" t="n">
-        <v>0</v>
-      </c>
-      <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L410" t="n">
-        <v>1</v>
-      </c>
-      <c r="M410" t="inlineStr"/>
-    </row>
-    <row r="411">
-      <c r="A411" s="1" t="n">
-        <v>409</v>
-      </c>
-      <c r="B411" t="n">
-        <v>2563</v>
-      </c>
-      <c r="C411" t="n">
-        <v>2563</v>
-      </c>
-      <c r="D411" t="n">
-        <v>2563</v>
-      </c>
-      <c r="E411" t="n">
-        <v>2563</v>
-      </c>
-      <c r="F411" t="n">
-        <v>95.6961</v>
-      </c>
-      <c r="G411" t="n">
-        <v>-23345.05976276435</v>
-      </c>
-      <c r="H411" t="n">
-        <v>0</v>
-      </c>
-      <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L411" t="n">
-        <v>1</v>
-      </c>
-      <c r="M411" t="inlineStr"/>
-    </row>
-    <row r="412">
-      <c r="A412" s="1" t="n">
-        <v>410</v>
-      </c>
-      <c r="B412" t="n">
-        <v>2563</v>
-      </c>
-      <c r="C412" t="n">
-        <v>2563</v>
-      </c>
-      <c r="D412" t="n">
-        <v>2563</v>
-      </c>
-      <c r="E412" t="n">
-        <v>2563</v>
-      </c>
-      <c r="F412" t="n">
-        <v>298.0492</v>
-      </c>
-      <c r="G412" t="n">
-        <v>-23345.05976276435</v>
-      </c>
-      <c r="H412" t="n">
-        <v>0</v>
-      </c>
-      <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L412" t="n">
-        <v>1</v>
-      </c>
-      <c r="M412" t="inlineStr"/>
-    </row>
-    <row r="413">
-      <c r="A413" s="1" t="n">
-        <v>411</v>
-      </c>
-      <c r="B413" t="n">
-        <v>2563</v>
-      </c>
-      <c r="C413" t="n">
-        <v>2563</v>
-      </c>
-      <c r="D413" t="n">
-        <v>2563</v>
-      </c>
-      <c r="E413" t="n">
-        <v>2563</v>
-      </c>
-      <c r="F413" t="n">
-        <v>50.496</v>
-      </c>
-      <c r="G413" t="n">
-        <v>-23345.05976276435</v>
-      </c>
-      <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L413" t="n">
-        <v>1</v>
-      </c>
-      <c r="M413" t="inlineStr"/>
-    </row>
-    <row r="414">
-      <c r="A414" s="1" t="n">
-        <v>412</v>
-      </c>
-      <c r="B414" t="n">
-        <v>2559</v>
-      </c>
-      <c r="C414" t="n">
-        <v>2558</v>
-      </c>
-      <c r="D414" t="n">
-        <v>2559</v>
-      </c>
-      <c r="E414" t="n">
-        <v>2558</v>
-      </c>
-      <c r="F414" t="n">
-        <v>149.4782</v>
-      </c>
-      <c r="G414" t="n">
-        <v>-23494.53796276435</v>
-      </c>
-      <c r="H414" t="n">
-        <v>0</v>
-      </c>
-      <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L414" t="n">
-        <v>1</v>
-      </c>
-      <c r="M414" t="inlineStr"/>
-    </row>
-    <row r="415">
-      <c r="A415" s="1" t="n">
-        <v>413</v>
-      </c>
-      <c r="B415" t="n">
-        <v>2559</v>
-      </c>
-      <c r="C415" t="n">
-        <v>2559</v>
-      </c>
-      <c r="D415" t="n">
-        <v>2559</v>
-      </c>
-      <c r="E415" t="n">
-        <v>2559</v>
-      </c>
-      <c r="F415" t="n">
-        <v>222.7481</v>
-      </c>
-      <c r="G415" t="n">
-        <v>-23271.78986276435</v>
-      </c>
-      <c r="H415" t="n">
-        <v>1</v>
-      </c>
-      <c r="I415" t="n">
-        <v>2558</v>
-      </c>
-      <c r="J415" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L415" t="n">
-        <v>1</v>
-      </c>
-      <c r="M415" t="inlineStr"/>
-    </row>
-    <row r="416">
-      <c r="A416" s="1" t="n">
-        <v>414</v>
-      </c>
-      <c r="B416" t="n">
-        <v>2559</v>
-      </c>
-      <c r="C416" t="n">
-        <v>2559</v>
-      </c>
-      <c r="D416" t="n">
-        <v>2559</v>
-      </c>
-      <c r="E416" t="n">
-        <v>2559</v>
-      </c>
-      <c r="F416" t="n">
-        <v>493.3399</v>
-      </c>
-      <c r="G416" t="n">
-        <v>-23271.78986276435</v>
-      </c>
-      <c r="H416" t="n">
-        <v>1</v>
-      </c>
-      <c r="I416" t="n">
-        <v>2559</v>
-      </c>
-      <c r="J416" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L416" t="n">
-        <v>1</v>
-      </c>
-      <c r="M416" t="inlineStr"/>
-    </row>
-    <row r="417">
-      <c r="A417" s="1" t="n">
-        <v>415</v>
-      </c>
-      <c r="B417" t="n">
-        <v>2558</v>
-      </c>
-      <c r="C417" t="n">
-        <v>2558</v>
-      </c>
-      <c r="D417" t="n">
-        <v>2558</v>
-      </c>
-      <c r="E417" t="n">
-        <v>2558</v>
-      </c>
-      <c r="F417" t="n">
-        <v>238.5584</v>
-      </c>
-      <c r="G417" t="n">
-        <v>-23510.34826276435</v>
-      </c>
-      <c r="H417" t="n">
-        <v>1</v>
-      </c>
-      <c r="I417" t="n">
-        <v>2559</v>
-      </c>
-      <c r="J417" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L417" t="n">
-        <v>1</v>
-      </c>
-      <c r="M417" t="inlineStr"/>
-    </row>
-    <row r="418">
-      <c r="A418" s="1" t="n">
-        <v>416</v>
-      </c>
-      <c r="B418" t="n">
-        <v>2563</v>
-      </c>
-      <c r="C418" t="n">
-        <v>2564</v>
-      </c>
-      <c r="D418" t="n">
-        <v>2564</v>
-      </c>
-      <c r="E418" t="n">
-        <v>2563</v>
-      </c>
-      <c r="F418" t="n">
-        <v>4307.6528</v>
-      </c>
-      <c r="G418" t="n">
-        <v>-19202.69546276435</v>
-      </c>
-      <c r="H418" t="n">
-        <v>1</v>
-      </c>
-      <c r="I418" t="n">
-        <v>2558</v>
-      </c>
-      <c r="J418" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L418" t="n">
-        <v>1</v>
-      </c>
-      <c r="M418" t="inlineStr"/>
-    </row>
-    <row r="419">
-      <c r="A419" s="1" t="n">
-        <v>417</v>
-      </c>
-      <c r="B419" t="n">
-        <v>2563</v>
-      </c>
-      <c r="C419" t="n">
-        <v>2563</v>
-      </c>
-      <c r="D419" t="n">
-        <v>2563</v>
-      </c>
-      <c r="E419" t="n">
-        <v>2563</v>
-      </c>
-      <c r="F419" t="n">
-        <v>74.4529</v>
-      </c>
-      <c r="G419" t="n">
-        <v>-19277.14836276435</v>
-      </c>
-      <c r="H419" t="n">
-        <v>0</v>
-      </c>
-      <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L419" t="n">
-        <v>1</v>
-      </c>
-      <c r="M419" t="inlineStr"/>
-    </row>
-    <row r="420">
-      <c r="A420" s="1" t="n">
-        <v>418</v>
-      </c>
-      <c r="B420" t="n">
-        <v>2563</v>
-      </c>
-      <c r="C420" t="n">
-        <v>2563</v>
-      </c>
-      <c r="D420" t="n">
-        <v>2563</v>
-      </c>
-      <c r="E420" t="n">
-        <v>2563</v>
-      </c>
-      <c r="F420" t="n">
-        <v>337.4382</v>
-      </c>
-      <c r="G420" t="n">
-        <v>-19277.14836276435</v>
-      </c>
-      <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L420" t="n">
-        <v>1</v>
-      </c>
-      <c r="M420" t="inlineStr"/>
-    </row>
-    <row r="421">
-      <c r="A421" s="1" t="n">
-        <v>419</v>
-      </c>
-      <c r="B421" t="n">
-        <v>2563</v>
-      </c>
-      <c r="C421" t="n">
-        <v>2563</v>
-      </c>
-      <c r="D421" t="n">
-        <v>2563</v>
-      </c>
-      <c r="E421" t="n">
-        <v>2563</v>
-      </c>
-      <c r="F421" t="n">
-        <v>85</v>
-      </c>
-      <c r="G421" t="n">
-        <v>-19277.14836276435</v>
-      </c>
-      <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L421" t="n">
-        <v>1</v>
-      </c>
-      <c r="M421" t="inlineStr"/>
-    </row>
-    <row r="422">
-      <c r="A422" s="1" t="n">
-        <v>420</v>
-      </c>
-      <c r="B422" t="n">
-        <v>2563</v>
-      </c>
-      <c r="C422" t="n">
-        <v>2563</v>
-      </c>
-      <c r="D422" t="n">
-        <v>2563</v>
-      </c>
-      <c r="E422" t="n">
-        <v>2563</v>
-      </c>
-      <c r="F422" t="n">
-        <v>135</v>
-      </c>
-      <c r="G422" t="n">
-        <v>-19277.14836276435</v>
-      </c>
-      <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L422" t="n">
-        <v>1</v>
-      </c>
-      <c r="M422" t="inlineStr"/>
-    </row>
-    <row r="423">
-      <c r="A423" s="1" t="n">
-        <v>421</v>
-      </c>
-      <c r="B423" t="n">
-        <v>2563</v>
-      </c>
-      <c r="C423" t="n">
-        <v>2559</v>
-      </c>
-      <c r="D423" t="n">
-        <v>2563</v>
-      </c>
-      <c r="E423" t="n">
-        <v>2559</v>
-      </c>
-      <c r="F423" t="n">
-        <v>1813.946</v>
-      </c>
-      <c r="G423" t="n">
-        <v>-21091.09436276435</v>
-      </c>
-      <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L423" t="n">
-        <v>1</v>
-      </c>
-      <c r="M423" t="inlineStr"/>
-    </row>
-    <row r="424">
-      <c r="A424" s="1" t="n">
-        <v>422</v>
-      </c>
-      <c r="B424" t="n">
-        <v>2558</v>
-      </c>
-      <c r="C424" t="n">
-        <v>2559</v>
-      </c>
-      <c r="D424" t="n">
-        <v>2559</v>
-      </c>
-      <c r="E424" t="n">
-        <v>2558</v>
-      </c>
-      <c r="F424" t="n">
-        <v>226.3064</v>
-      </c>
-      <c r="G424" t="n">
-        <v>-21091.09436276435</v>
-      </c>
-      <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L424" t="n">
-        <v>1</v>
-      </c>
-      <c r="M424" t="inlineStr"/>
-    </row>
-    <row r="425">
-      <c r="A425" s="1" t="n">
-        <v>423</v>
-      </c>
-      <c r="B425" t="n">
-        <v>2554</v>
-      </c>
-      <c r="C425" t="n">
-        <v>2554</v>
-      </c>
-      <c r="D425" t="n">
-        <v>2554</v>
-      </c>
-      <c r="E425" t="n">
-        <v>2554</v>
-      </c>
-      <c r="F425" t="n">
-        <v>91.80629999999999</v>
-      </c>
-      <c r="G425" t="n">
-        <v>-21182.90066276435</v>
-      </c>
-      <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L425" t="n">
-        <v>1</v>
-      </c>
-      <c r="M425" t="inlineStr"/>
-    </row>
-    <row r="426">
-      <c r="A426" s="1" t="n">
-        <v>424</v>
-      </c>
-      <c r="B426" t="n">
-        <v>2554</v>
-      </c>
-      <c r="C426" t="n">
-        <v>2554</v>
-      </c>
-      <c r="D426" t="n">
-        <v>2554</v>
-      </c>
-      <c r="E426" t="n">
-        <v>2554</v>
-      </c>
-      <c r="F426" t="n">
-        <v>330.72</v>
-      </c>
-      <c r="G426" t="n">
-        <v>-21182.90066276435</v>
-      </c>
-      <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L426" t="n">
-        <v>1</v>
-      </c>
-      <c r="M426" t="inlineStr"/>
-    </row>
-    <row r="427">
-      <c r="A427" s="1" t="n">
-        <v>425</v>
-      </c>
-      <c r="B427" t="n">
-        <v>2553</v>
-      </c>
-      <c r="C427" t="n">
-        <v>2553</v>
-      </c>
-      <c r="D427" t="n">
-        <v>2553</v>
-      </c>
-      <c r="E427" t="n">
-        <v>2553</v>
-      </c>
-      <c r="F427" t="n">
-        <v>473.6918</v>
-      </c>
-      <c r="G427" t="n">
-        <v>-21656.59246276435</v>
-      </c>
-      <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L427" t="n">
-        <v>1</v>
-      </c>
-      <c r="M427" t="inlineStr"/>
-    </row>
-    <row r="428">
-      <c r="A428" s="1" t="n">
-        <v>426</v>
-      </c>
-      <c r="B428" t="n">
-        <v>2553</v>
-      </c>
-      <c r="C428" t="n">
-        <v>2557</v>
-      </c>
-      <c r="D428" t="n">
-        <v>2559</v>
-      </c>
-      <c r="E428" t="n">
-        <v>2552</v>
-      </c>
-      <c r="F428" t="n">
-        <v>152.5318</v>
-      </c>
-      <c r="G428" t="n">
-        <v>-21504.06066276435</v>
-      </c>
-      <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L428" t="n">
-        <v>1</v>
-      </c>
-      <c r="M428" t="inlineStr"/>
-    </row>
-    <row r="429">
-      <c r="A429" s="1" t="n">
-        <v>427</v>
-      </c>
-      <c r="B429" t="n">
-        <v>2552</v>
-      </c>
-      <c r="C429" t="n">
-        <v>2561</v>
-      </c>
-      <c r="D429" t="n">
-        <v>2561</v>
-      </c>
-      <c r="E429" t="n">
-        <v>2552</v>
-      </c>
-      <c r="F429" t="n">
-        <v>118.1055</v>
-      </c>
-      <c r="G429" t="n">
-        <v>-21385.95516276435</v>
-      </c>
-      <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L429" t="n">
-        <v>1</v>
-      </c>
-      <c r="M429" t="inlineStr"/>
-    </row>
-    <row r="430">
-      <c r="A430" s="1" t="n">
-        <v>428</v>
-      </c>
-      <c r="B430" t="n">
-        <v>2567</v>
-      </c>
-      <c r="C430" t="n">
-        <v>2567</v>
-      </c>
-      <c r="D430" t="n">
-        <v>2567</v>
-      </c>
-      <c r="E430" t="n">
-        <v>2567</v>
-      </c>
-      <c r="F430" t="n">
-        <v>18.9043</v>
-      </c>
-      <c r="G430" t="n">
-        <v>-21367.05086276435</v>
-      </c>
-      <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L430" t="n">
-        <v>1</v>
-      </c>
-      <c r="M430" t="inlineStr"/>
-    </row>
-    <row r="431">
-      <c r="A431" s="1" t="n">
-        <v>429</v>
-      </c>
-      <c r="B431" t="n">
-        <v>2564</v>
-      </c>
-      <c r="C431" t="n">
-        <v>2564</v>
-      </c>
-      <c r="D431" t="n">
-        <v>2564</v>
-      </c>
-      <c r="E431" t="n">
-        <v>2564</v>
-      </c>
-      <c r="F431" t="n">
-        <v>1</v>
-      </c>
-      <c r="G431" t="n">
-        <v>-21368.05086276435</v>
-      </c>
-      <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L431" t="n">
-        <v>1</v>
-      </c>
-      <c r="M431" t="inlineStr"/>
-    </row>
-    <row r="432">
-      <c r="A432" s="1" t="n">
-        <v>430</v>
-      </c>
-      <c r="B432" t="n">
-        <v>2559</v>
-      </c>
-      <c r="C432" t="n">
-        <v>2561</v>
-      </c>
-      <c r="D432" t="n">
-        <v>2561</v>
-      </c>
-      <c r="E432" t="n">
-        <v>2559</v>
-      </c>
-      <c r="F432" t="n">
-        <v>135.0295</v>
-      </c>
-      <c r="G432" t="n">
-        <v>-21503.08036276435</v>
-      </c>
-      <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L432" t="n">
-        <v>1</v>
-      </c>
-      <c r="M432" t="inlineStr"/>
-    </row>
-    <row r="433">
-      <c r="A433" s="1" t="n">
-        <v>431</v>
-      </c>
-      <c r="B433" t="n">
-        <v>2560</v>
-      </c>
-      <c r="C433" t="n">
-        <v>2560</v>
-      </c>
-      <c r="D433" t="n">
-        <v>2560</v>
-      </c>
-      <c r="E433" t="n">
-        <v>2560</v>
-      </c>
-      <c r="F433" t="n">
-        <v>375.6647</v>
-      </c>
-      <c r="G433" t="n">
-        <v>-21878.74506276435</v>
-      </c>
-      <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L433" t="n">
-        <v>1</v>
-      </c>
-      <c r="M433" t="inlineStr"/>
-    </row>
-    <row r="434">
-      <c r="A434" s="1" t="n">
-        <v>432</v>
-      </c>
-      <c r="B434" t="n">
-        <v>2560</v>
-      </c>
-      <c r="C434" t="n">
-        <v>2560</v>
-      </c>
-      <c r="D434" t="n">
-        <v>2560</v>
-      </c>
-      <c r="E434" t="n">
-        <v>2560</v>
-      </c>
-      <c r="F434" t="n">
-        <v>244.2299</v>
-      </c>
-      <c r="G434" t="n">
-        <v>-21878.74506276435</v>
-      </c>
-      <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L434" t="n">
-        <v>1</v>
-      </c>
-      <c r="M434" t="inlineStr"/>
-    </row>
-    <row r="435">
-      <c r="A435" s="1" t="n">
-        <v>433</v>
-      </c>
-      <c r="B435" t="n">
-        <v>2565</v>
-      </c>
-      <c r="C435" t="n">
-        <v>2565</v>
-      </c>
-      <c r="D435" t="n">
-        <v>2565</v>
-      </c>
-      <c r="E435" t="n">
-        <v>2565</v>
-      </c>
-      <c r="F435" t="n">
-        <v>917.1557</v>
-      </c>
-      <c r="G435" t="n">
-        <v>-20961.58936276435</v>
-      </c>
-      <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L435" t="n">
-        <v>1</v>
-      </c>
-      <c r="M435" t="inlineStr"/>
-    </row>
-    <row r="436">
-      <c r="A436" s="1" t="n">
-        <v>434</v>
-      </c>
-      <c r="B436" t="n">
-        <v>2561</v>
-      </c>
-      <c r="C436" t="n">
-        <v>2567</v>
-      </c>
-      <c r="D436" t="n">
-        <v>2567</v>
-      </c>
-      <c r="E436" t="n">
-        <v>2561</v>
-      </c>
-      <c r="F436" t="n">
-        <v>2880.66</v>
-      </c>
-      <c r="G436" t="n">
-        <v>-18080.92936276435</v>
-      </c>
-      <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L436" t="n">
-        <v>1</v>
-      </c>
-      <c r="M436" t="inlineStr"/>
-    </row>
-    <row r="437">
-      <c r="A437" s="1" t="n">
-        <v>435</v>
-      </c>
-      <c r="B437" t="n">
-        <v>2568</v>
-      </c>
-      <c r="C437" t="n">
-        <v>2569</v>
-      </c>
-      <c r="D437" t="n">
-        <v>2569</v>
-      </c>
-      <c r="E437" t="n">
-        <v>2568</v>
-      </c>
-      <c r="F437" t="n">
-        <v>418.4266</v>
-      </c>
-      <c r="G437" t="n">
-        <v>-17662.50276276435</v>
-      </c>
-      <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L437" t="n">
-        <v>1</v>
-      </c>
-      <c r="M437" t="inlineStr"/>
-    </row>
-    <row r="438">
-      <c r="A438" s="1" t="n">
-        <v>436</v>
-      </c>
-      <c r="B438" t="n">
-        <v>2569</v>
-      </c>
-      <c r="C438" t="n">
-        <v>2569</v>
-      </c>
-      <c r="D438" t="n">
-        <v>2570</v>
-      </c>
-      <c r="E438" t="n">
-        <v>2569</v>
-      </c>
-      <c r="F438" t="n">
-        <v>3119.0318</v>
-      </c>
-      <c r="G438" t="n">
-        <v>-17662.50276276435</v>
-      </c>
-      <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L438" t="n">
-        <v>1</v>
-      </c>
-      <c r="M438" t="inlineStr"/>
-    </row>
-    <row r="439">
-      <c r="A439" s="1" t="n">
-        <v>437</v>
-      </c>
-      <c r="B439" t="n">
-        <v>2569</v>
-      </c>
-      <c r="C439" t="n">
-        <v>2563</v>
-      </c>
-      <c r="D439" t="n">
-        <v>2570</v>
-      </c>
-      <c r="E439" t="n">
-        <v>2563</v>
-      </c>
-      <c r="F439" t="n">
-        <v>2891.1244</v>
-      </c>
-      <c r="G439" t="n">
-        <v>-20553.62716276435</v>
-      </c>
-      <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L439" t="n">
-        <v>1</v>
-      </c>
-      <c r="M439" t="inlineStr"/>
-    </row>
-    <row r="440">
-      <c r="A440" s="1" t="n">
-        <v>438</v>
-      </c>
-      <c r="B440" t="n">
-        <v>2563</v>
-      </c>
-      <c r="C440" t="n">
-        <v>2562</v>
-      </c>
-      <c r="D440" t="n">
-        <v>2566</v>
-      </c>
-      <c r="E440" t="n">
-        <v>2562</v>
-      </c>
-      <c r="F440" t="n">
-        <v>431.0652</v>
-      </c>
-      <c r="G440" t="n">
-        <v>-20984.69236276436</v>
-      </c>
-      <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L440" t="n">
-        <v>1</v>
-      </c>
-      <c r="M440" t="inlineStr"/>
-    </row>
-    <row r="441">
-      <c r="A441" s="1" t="n">
-        <v>439</v>
-      </c>
-      <c r="B441" t="n">
-        <v>2562</v>
-      </c>
-      <c r="C441" t="n">
-        <v>2563</v>
-      </c>
-      <c r="D441" t="n">
-        <v>2563</v>
-      </c>
-      <c r="E441" t="n">
-        <v>2562</v>
-      </c>
-      <c r="F441" t="n">
-        <v>243.1721</v>
-      </c>
-      <c r="G441" t="n">
-        <v>-20741.52026276436</v>
-      </c>
-      <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L441" t="n">
-        <v>1</v>
-      </c>
-      <c r="M441" t="inlineStr"/>
-    </row>
-    <row r="442">
-      <c r="A442" s="1" t="n">
-        <v>440</v>
-      </c>
-      <c r="B442" t="n">
-        <v>2563</v>
-      </c>
-      <c r="C442" t="n">
-        <v>2563</v>
-      </c>
-      <c r="D442" t="n">
-        <v>2563</v>
-      </c>
-      <c r="E442" t="n">
-        <v>2563</v>
-      </c>
-      <c r="F442" t="n">
-        <v>25</v>
-      </c>
-      <c r="G442" t="n">
-        <v>-20741.52026276436</v>
-      </c>
-      <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L442" t="n">
-        <v>1</v>
-      </c>
-      <c r="M442" t="inlineStr"/>
-    </row>
-    <row r="443">
-      <c r="A443" s="1" t="n">
-        <v>441</v>
-      </c>
-      <c r="B443" t="n">
-        <v>2562</v>
-      </c>
-      <c r="C443" t="n">
-        <v>2562</v>
-      </c>
-      <c r="D443" t="n">
-        <v>2563</v>
-      </c>
-      <c r="E443" t="n">
-        <v>2562</v>
-      </c>
-      <c r="F443" t="n">
-        <v>150</v>
-      </c>
-      <c r="G443" t="n">
-        <v>-20891.52026276436</v>
-      </c>
-      <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L443" t="n">
-        <v>1</v>
-      </c>
-      <c r="M443" t="inlineStr"/>
-    </row>
-    <row r="444">
-      <c r="A444" s="1" t="n">
-        <v>442</v>
-      </c>
-      <c r="B444" t="n">
-        <v>2564</v>
-      </c>
-      <c r="C444" t="n">
-        <v>2564</v>
-      </c>
-      <c r="D444" t="n">
-        <v>2564</v>
-      </c>
-      <c r="E444" t="n">
-        <v>2564</v>
-      </c>
-      <c r="F444" t="n">
-        <v>656.4968</v>
-      </c>
-      <c r="G444" t="n">
-        <v>-20235.02346276435</v>
-      </c>
-      <c r="H444" t="n">
-        <v>0</v>
-      </c>
-      <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L444" t="n">
-        <v>1</v>
-      </c>
-      <c r="M444" t="inlineStr"/>
-    </row>
-    <row r="445">
-      <c r="A445" s="1" t="n">
-        <v>443</v>
-      </c>
-      <c r="B445" t="n">
-        <v>2564</v>
-      </c>
-      <c r="C445" t="n">
-        <v>2562</v>
-      </c>
-      <c r="D445" t="n">
-        <v>2564</v>
-      </c>
-      <c r="E445" t="n">
-        <v>2562</v>
-      </c>
-      <c r="F445" t="n">
-        <v>65.6952</v>
-      </c>
-      <c r="G445" t="n">
-        <v>-20300.71866276435</v>
-      </c>
-      <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L445" t="n">
-        <v>1</v>
-      </c>
-      <c r="M445" t="inlineStr"/>
-    </row>
-    <row r="446">
-      <c r="A446" s="1" t="n">
-        <v>444</v>
-      </c>
-      <c r="B446" t="n">
-        <v>2565</v>
-      </c>
-      <c r="C446" t="n">
-        <v>2565</v>
-      </c>
-      <c r="D446" t="n">
-        <v>2565</v>
-      </c>
-      <c r="E446" t="n">
-        <v>2565</v>
-      </c>
-      <c r="F446" t="n">
-        <v>127.9563</v>
-      </c>
-      <c r="G446" t="n">
-        <v>-20172.76236276435</v>
-      </c>
-      <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L446" t="n">
-        <v>1</v>
-      </c>
-      <c r="M446" t="inlineStr"/>
-    </row>
-    <row r="447">
-      <c r="A447" s="1" t="n">
-        <v>445</v>
-      </c>
-      <c r="B447" t="n">
-        <v>2562</v>
-      </c>
-      <c r="C447" t="n">
-        <v>2562</v>
-      </c>
-      <c r="D447" t="n">
-        <v>2562</v>
-      </c>
-      <c r="E447" t="n">
-        <v>2562</v>
-      </c>
-      <c r="F447" t="n">
-        <v>2412.48</v>
-      </c>
-      <c r="G447" t="n">
-        <v>-22585.24236276435</v>
-      </c>
-      <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L447" t="n">
-        <v>1</v>
-      </c>
-      <c r="M447" t="inlineStr"/>
-    </row>
-    <row r="448">
-      <c r="A448" s="1" t="n">
-        <v>446</v>
-      </c>
-      <c r="B448" t="n">
-        <v>2562</v>
-      </c>
-      <c r="C448" t="n">
-        <v>2564</v>
-      </c>
-      <c r="D448" t="n">
-        <v>2564</v>
-      </c>
-      <c r="E448" t="n">
-        <v>2562</v>
-      </c>
-      <c r="F448" t="n">
-        <v>1036.889</v>
-      </c>
-      <c r="G448" t="n">
-        <v>-21548.35336276435</v>
-      </c>
-      <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L448" t="n">
-        <v>1</v>
-      </c>
-      <c r="M448" t="inlineStr"/>
-    </row>
-    <row r="449">
-      <c r="A449" s="1" t="n">
-        <v>447</v>
-      </c>
-      <c r="B449" t="n">
-        <v>2562</v>
-      </c>
-      <c r="C449" t="n">
-        <v>2562</v>
-      </c>
-      <c r="D449" t="n">
-        <v>2562</v>
-      </c>
-      <c r="E449" t="n">
-        <v>2562</v>
-      </c>
-      <c r="F449" t="n">
-        <v>76.99039999999999</v>
-      </c>
-      <c r="G449" t="n">
-        <v>-21625.34376276435</v>
-      </c>
-      <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L449" t="n">
-        <v>1</v>
-      </c>
-      <c r="M449" t="inlineStr"/>
-    </row>
-    <row r="450">
-      <c r="A450" s="1" t="n">
-        <v>448</v>
-      </c>
-      <c r="B450" t="n">
-        <v>2562</v>
-      </c>
-      <c r="C450" t="n">
-        <v>2561</v>
-      </c>
-      <c r="D450" t="n">
-        <v>2562</v>
-      </c>
-      <c r="E450" t="n">
-        <v>2560</v>
-      </c>
-      <c r="F450" t="n">
-        <v>1527.532</v>
-      </c>
-      <c r="G450" t="n">
-        <v>-23152.87576276435</v>
-      </c>
-      <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L450" t="n">
-        <v>1</v>
-      </c>
-      <c r="M450" t="inlineStr"/>
-    </row>
-    <row r="451">
-      <c r="A451" s="1" t="n">
-        <v>449</v>
-      </c>
-      <c r="B451" t="n">
-        <v>2560</v>
-      </c>
-      <c r="C451" t="n">
-        <v>2560</v>
-      </c>
-      <c r="D451" t="n">
-        <v>2560</v>
-      </c>
-      <c r="E451" t="n">
-        <v>2560</v>
-      </c>
-      <c r="F451" t="n">
-        <v>3006.8158</v>
-      </c>
-      <c r="G451" t="n">
-        <v>-26159.69156276435</v>
-      </c>
-      <c r="H451" t="n">
-        <v>0</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L451" t="n">
-        <v>1</v>
-      </c>
-      <c r="M451" t="inlineStr"/>
-    </row>
-    <row r="452">
-      <c r="A452" s="1" t="n">
-        <v>450</v>
-      </c>
-      <c r="B452" t="n">
-        <v>2561</v>
-      </c>
-      <c r="C452" t="n">
-        <v>2560</v>
-      </c>
-      <c r="D452" t="n">
-        <v>2561</v>
-      </c>
-      <c r="E452" t="n">
-        <v>2560</v>
-      </c>
-      <c r="F452" t="n">
-        <v>879.0513</v>
-      </c>
-      <c r="G452" t="n">
-        <v>-26159.69156276435</v>
-      </c>
-      <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L452" t="n">
-        <v>1</v>
-      </c>
-      <c r="M452" t="inlineStr"/>
-    </row>
-    <row r="453">
-      <c r="A453" s="1" t="n">
-        <v>451</v>
-      </c>
-      <c r="B453" t="n">
-        <v>2559</v>
-      </c>
-      <c r="C453" t="n">
-        <v>2559</v>
-      </c>
-      <c r="D453" t="n">
-        <v>2559</v>
-      </c>
-      <c r="E453" t="n">
-        <v>2559</v>
-      </c>
-      <c r="F453" t="n">
-        <v>59.18</v>
-      </c>
-      <c r="G453" t="n">
-        <v>-26218.87156276435</v>
-      </c>
-      <c r="H453" t="n">
-        <v>0</v>
-      </c>
-      <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L453" t="n">
-        <v>1</v>
-      </c>
-      <c r="M453" t="inlineStr"/>
-    </row>
-    <row r="454">
-      <c r="A454" s="1" t="n">
-        <v>452</v>
-      </c>
-      <c r="B454" t="n">
-        <v>2557</v>
-      </c>
-      <c r="C454" t="n">
-        <v>2557</v>
-      </c>
-      <c r="D454" t="n">
-        <v>2557</v>
-      </c>
-      <c r="E454" t="n">
-        <v>2557</v>
-      </c>
-      <c r="F454" t="n">
-        <v>4.6092</v>
-      </c>
-      <c r="G454" t="n">
-        <v>-26223.48076276435</v>
-      </c>
-      <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L454" t="n">
-        <v>1</v>
-      </c>
-      <c r="M454" t="inlineStr"/>
-    </row>
-    <row r="455">
-      <c r="A455" s="1" t="n">
-        <v>453</v>
-      </c>
-      <c r="B455" t="n">
-        <v>2556</v>
-      </c>
-      <c r="C455" t="n">
-        <v>2556</v>
-      </c>
-      <c r="D455" t="n">
-        <v>2556</v>
-      </c>
-      <c r="E455" t="n">
-        <v>2556</v>
-      </c>
-      <c r="F455" t="n">
-        <v>171.034</v>
-      </c>
-      <c r="G455" t="n">
-        <v>-26394.51476276435</v>
-      </c>
-      <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L455" t="n">
-        <v>1</v>
-      </c>
-      <c r="M455" t="inlineStr"/>
-    </row>
-    <row r="456">
-      <c r="A456" s="1" t="n">
-        <v>454</v>
-      </c>
-      <c r="B456" t="n">
-        <v>2556</v>
-      </c>
-      <c r="C456" t="n">
-        <v>2556</v>
-      </c>
-      <c r="D456" t="n">
-        <v>2556</v>
-      </c>
-      <c r="E456" t="n">
-        <v>2556</v>
-      </c>
-      <c r="F456" t="n">
-        <v>1167.321</v>
-      </c>
-      <c r="G456" t="n">
-        <v>-26394.51476276435</v>
-      </c>
-      <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L456" t="n">
-        <v>1</v>
-      </c>
-      <c r="M456" t="inlineStr"/>
-    </row>
-    <row r="457">
-      <c r="A457" s="1" t="n">
-        <v>455</v>
-      </c>
-      <c r="B457" t="n">
-        <v>2556</v>
-      </c>
-      <c r="C457" t="n">
-        <v>2556</v>
-      </c>
-      <c r="D457" t="n">
-        <v>2556</v>
-      </c>
-      <c r="E457" t="n">
-        <v>2556</v>
-      </c>
-      <c r="F457" t="n">
-        <v>108.2452</v>
-      </c>
-      <c r="G457" t="n">
-        <v>-26394.51476276435</v>
-      </c>
-      <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L457" t="n">
-        <v>1</v>
-      </c>
-      <c r="M457" t="inlineStr"/>
-    </row>
-    <row r="458">
-      <c r="A458" s="1" t="n">
-        <v>456</v>
-      </c>
-      <c r="B458" t="n">
-        <v>2552</v>
-      </c>
-      <c r="C458" t="n">
-        <v>2552</v>
-      </c>
-      <c r="D458" t="n">
-        <v>2552</v>
-      </c>
-      <c r="E458" t="n">
-        <v>2552</v>
-      </c>
-      <c r="F458" t="n">
-        <v>136.215</v>
-      </c>
-      <c r="G458" t="n">
-        <v>-26530.72976276435</v>
-      </c>
-      <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L458" t="n">
-        <v>1</v>
-      </c>
-      <c r="M458" t="inlineStr"/>
-    </row>
-    <row r="459">
-      <c r="A459" s="1" t="n">
-        <v>457</v>
-      </c>
-      <c r="B459" t="n">
-        <v>2552</v>
-      </c>
-      <c r="C459" t="n">
-        <v>2552</v>
-      </c>
-      <c r="D459" t="n">
-        <v>2552</v>
-      </c>
-      <c r="E459" t="n">
-        <v>2552</v>
-      </c>
-      <c r="F459" t="n">
-        <v>16.7832</v>
-      </c>
-      <c r="G459" t="n">
-        <v>-26530.72976276435</v>
-      </c>
-      <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L459" t="n">
-        <v>1</v>
-      </c>
-      <c r="M459" t="inlineStr"/>
-    </row>
-    <row r="460">
-      <c r="A460" s="1" t="n">
-        <v>458</v>
-      </c>
-      <c r="B460" t="n">
-        <v>2552</v>
-      </c>
-      <c r="C460" t="n">
-        <v>2547</v>
-      </c>
-      <c r="D460" t="n">
-        <v>2552</v>
-      </c>
-      <c r="E460" t="n">
-        <v>2547</v>
-      </c>
-      <c r="F460" t="n">
-        <v>626.1056</v>
-      </c>
-      <c r="G460" t="n">
-        <v>-27156.83536276435</v>
-      </c>
-      <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L460" t="n">
-        <v>1</v>
-      </c>
-      <c r="M460" t="inlineStr"/>
-    </row>
-    <row r="461">
-      <c r="A461" s="1" t="n">
-        <v>459</v>
-      </c>
-      <c r="B461" t="n">
-        <v>2552</v>
-      </c>
-      <c r="C461" t="n">
-        <v>2554</v>
-      </c>
-      <c r="D461" t="n">
-        <v>2554</v>
-      </c>
-      <c r="E461" t="n">
-        <v>2552</v>
-      </c>
-      <c r="F461" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="G461" t="n">
-        <v>-27155.17536276435</v>
-      </c>
-      <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L461" t="n">
-        <v>1</v>
-      </c>
-      <c r="M461" t="inlineStr"/>
-    </row>
-    <row r="462">
-      <c r="A462" s="1" t="n">
-        <v>460</v>
-      </c>
-      <c r="B462" t="n">
-        <v>2553</v>
-      </c>
-      <c r="C462" t="n">
-        <v>2553</v>
-      </c>
-      <c r="D462" t="n">
-        <v>2553</v>
-      </c>
-      <c r="E462" t="n">
-        <v>2553</v>
-      </c>
-      <c r="F462" t="n">
-        <v>160</v>
-      </c>
-      <c r="G462" t="n">
-        <v>-27315.17536276435</v>
-      </c>
-      <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L462" t="n">
-        <v>1</v>
-      </c>
-      <c r="M462" t="inlineStr"/>
-    </row>
-    <row r="463">
-      <c r="A463" s="1" t="n">
-        <v>461</v>
-      </c>
-      <c r="B463" t="n">
-        <v>2551</v>
-      </c>
-      <c r="C463" t="n">
-        <v>2547</v>
-      </c>
-      <c r="D463" t="n">
-        <v>2553</v>
-      </c>
-      <c r="E463" t="n">
-        <v>2547</v>
-      </c>
-      <c r="F463" t="n">
-        <v>353.1374</v>
-      </c>
-      <c r="G463" t="n">
-        <v>-27668.31276276435</v>
-      </c>
-      <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L463" t="n">
-        <v>1</v>
-      </c>
-      <c r="M463" t="inlineStr"/>
-    </row>
-    <row r="464">
-      <c r="A464" s="1" t="n">
-        <v>462</v>
-      </c>
-      <c r="B464" t="n">
-        <v>2551</v>
-      </c>
-      <c r="C464" t="n">
-        <v>2551</v>
-      </c>
-      <c r="D464" t="n">
-        <v>2551</v>
-      </c>
-      <c r="E464" t="n">
-        <v>2551</v>
-      </c>
-      <c r="F464" t="n">
-        <v>43.6512</v>
-      </c>
-      <c r="G464" t="n">
-        <v>-27624.66156276435</v>
-      </c>
-      <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L464" t="n">
-        <v>1</v>
-      </c>
-      <c r="M464" t="inlineStr"/>
-    </row>
-    <row r="465">
-      <c r="A465" s="1" t="n">
-        <v>463</v>
-      </c>
-      <c r="B465" t="n">
-        <v>2554</v>
-      </c>
-      <c r="C465" t="n">
-        <v>2554</v>
-      </c>
-      <c r="D465" t="n">
-        <v>2554</v>
-      </c>
-      <c r="E465" t="n">
-        <v>2554</v>
-      </c>
-      <c r="F465" t="n">
-        <v>1615.3427</v>
-      </c>
-      <c r="G465" t="n">
-        <v>-26009.31886276435</v>
-      </c>
-      <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L465" t="n">
-        <v>1</v>
-      </c>
-      <c r="M465" t="inlineStr"/>
-    </row>
-    <row r="466">
-      <c r="A466" s="1" t="n">
-        <v>464</v>
-      </c>
-      <c r="B466" t="n">
-        <v>2554</v>
-      </c>
-      <c r="C466" t="n">
-        <v>2553</v>
-      </c>
-      <c r="D466" t="n">
-        <v>2554</v>
-      </c>
-      <c r="E466" t="n">
-        <v>2553</v>
-      </c>
-      <c r="F466" t="n">
-        <v>653.6858</v>
-      </c>
-      <c r="G466" t="n">
-        <v>-26663.00466276435</v>
-      </c>
-      <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L466" t="n">
-        <v>1</v>
-      </c>
-      <c r="M466" t="inlineStr"/>
-    </row>
-    <row r="467">
-      <c r="A467" s="1" t="n">
-        <v>465</v>
-      </c>
-      <c r="B467" t="n">
-        <v>2553</v>
-      </c>
-      <c r="C467" t="n">
-        <v>2550</v>
-      </c>
-      <c r="D467" t="n">
-        <v>2553</v>
-      </c>
-      <c r="E467" t="n">
-        <v>2550</v>
-      </c>
-      <c r="F467" t="n">
-        <v>120.1795</v>
-      </c>
-      <c r="G467" t="n">
-        <v>-26783.18416276434</v>
-      </c>
-      <c r="H467" t="n">
-        <v>0</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L467" t="n">
-        <v>1</v>
-      </c>
-      <c r="M467" t="inlineStr"/>
-    </row>
-    <row r="468">
-      <c r="A468" s="1" t="n">
-        <v>466</v>
-      </c>
-      <c r="B468" t="n">
-        <v>2550</v>
-      </c>
-      <c r="C468" t="n">
-        <v>2550</v>
-      </c>
-      <c r="D468" t="n">
-        <v>2550</v>
-      </c>
-      <c r="E468" t="n">
-        <v>2550</v>
-      </c>
-      <c r="F468" t="n">
-        <v>12.5549</v>
-      </c>
-      <c r="G468" t="n">
-        <v>-26783.18416276434</v>
-      </c>
-      <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L468" t="n">
-        <v>1</v>
-      </c>
-      <c r="M468" t="inlineStr"/>
-    </row>
-    <row r="469">
-      <c r="A469" s="1" t="n">
-        <v>467</v>
-      </c>
-      <c r="B469" t="n">
-        <v>2549</v>
-      </c>
-      <c r="C469" t="n">
-        <v>2544</v>
-      </c>
-      <c r="D469" t="n">
-        <v>2549</v>
-      </c>
-      <c r="E469" t="n">
-        <v>2544</v>
-      </c>
-      <c r="F469" t="n">
-        <v>1488.4331</v>
-      </c>
-      <c r="G469" t="n">
-        <v>-28271.61726276434</v>
-      </c>
-      <c r="H469" t="n">
-        <v>0</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L469" t="n">
-        <v>1</v>
-      </c>
-      <c r="M469" t="inlineStr"/>
-    </row>
-    <row r="470">
-      <c r="A470" s="1" t="n">
-        <v>468</v>
-      </c>
-      <c r="B470" t="n">
-        <v>2544</v>
-      </c>
-      <c r="C470" t="n">
-        <v>2544</v>
-      </c>
-      <c r="D470" t="n">
-        <v>2544</v>
-      </c>
-      <c r="E470" t="n">
-        <v>2544</v>
-      </c>
-      <c r="F470" t="n">
-        <v>28.5124</v>
-      </c>
-      <c r="G470" t="n">
-        <v>-28271.61726276434</v>
-      </c>
-      <c r="H470" t="n">
-        <v>0</v>
-      </c>
-      <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L470" t="n">
-        <v>1</v>
-      </c>
-      <c r="M470" t="inlineStr"/>
-    </row>
-    <row r="471">
-      <c r="A471" s="1" t="n">
-        <v>469</v>
-      </c>
-      <c r="B471" t="n">
-        <v>2545</v>
-      </c>
-      <c r="C471" t="n">
-        <v>2544</v>
-      </c>
-      <c r="D471" t="n">
-        <v>2545</v>
-      </c>
-      <c r="E471" t="n">
-        <v>2544</v>
-      </c>
-      <c r="F471" t="n">
-        <v>1369.9146</v>
-      </c>
-      <c r="G471" t="n">
-        <v>-28271.61726276434</v>
-      </c>
-      <c r="H471" t="n">
-        <v>0</v>
-      </c>
-      <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L471" t="n">
-        <v>1</v>
-      </c>
-      <c r="M471" t="inlineStr"/>
-    </row>
-    <row r="472">
-      <c r="A472" s="1" t="n">
-        <v>470</v>
-      </c>
-      <c r="B472" t="n">
-        <v>2546</v>
-      </c>
-      <c r="C472" t="n">
-        <v>2546</v>
-      </c>
-      <c r="D472" t="n">
-        <v>2546</v>
-      </c>
-      <c r="E472" t="n">
-        <v>2546</v>
-      </c>
-      <c r="F472" t="n">
-        <v>288.9397</v>
-      </c>
-      <c r="G472" t="n">
-        <v>-27982.67756276434</v>
-      </c>
-      <c r="H472" t="n">
-        <v>0</v>
-      </c>
-      <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L472" t="n">
-        <v>1</v>
-      </c>
-      <c r="M472" t="inlineStr"/>
-    </row>
-    <row r="473">
-      <c r="A473" s="1" t="n">
-        <v>471</v>
-      </c>
-      <c r="B473" t="n">
-        <v>2546</v>
-      </c>
-      <c r="C473" t="n">
-        <v>2546</v>
-      </c>
-      <c r="D473" t="n">
-        <v>2546</v>
-      </c>
-      <c r="E473" t="n">
-        <v>2546</v>
-      </c>
-      <c r="F473" t="n">
-        <v>12</v>
-      </c>
-      <c r="G473" t="n">
-        <v>-27982.67756276434</v>
-      </c>
-      <c r="H473" t="n">
-        <v>0</v>
-      </c>
-      <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L473" t="n">
-        <v>1</v>
-      </c>
-      <c r="M473" t="inlineStr"/>
-    </row>
-    <row r="474">
-      <c r="A474" s="1" t="n">
-        <v>472</v>
-      </c>
-      <c r="B474" t="n">
-        <v>2546</v>
-      </c>
-      <c r="C474" t="n">
-        <v>2546</v>
-      </c>
-      <c r="D474" t="n">
-        <v>2546</v>
-      </c>
-      <c r="E474" t="n">
-        <v>2546</v>
-      </c>
-      <c r="F474" t="n">
-        <v>80.2212</v>
-      </c>
-      <c r="G474" t="n">
-        <v>-27982.67756276434</v>
-      </c>
-      <c r="H474" t="n">
-        <v>0</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L474" t="n">
-        <v>1</v>
-      </c>
-      <c r="M474" t="inlineStr"/>
-    </row>
-    <row r="475">
-      <c r="A475" s="1" t="n">
-        <v>473</v>
-      </c>
-      <c r="B475" t="n">
-        <v>2546</v>
-      </c>
-      <c r="C475" t="n">
-        <v>2546</v>
-      </c>
-      <c r="D475" t="n">
-        <v>2546</v>
-      </c>
-      <c r="E475" t="n">
-        <v>2546</v>
-      </c>
-      <c r="F475" t="n">
-        <v>150</v>
-      </c>
-      <c r="G475" t="n">
-        <v>-27982.67756276434</v>
-      </c>
-      <c r="H475" t="n">
-        <v>0</v>
-      </c>
-      <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L475" t="n">
-        <v>1</v>
-      </c>
-      <c r="M475" t="inlineStr"/>
-    </row>
-    <row r="476">
-      <c r="A476" s="1" t="n">
-        <v>474</v>
-      </c>
-      <c r="B476" t="n">
-        <v>2546</v>
-      </c>
-      <c r="C476" t="n">
-        <v>2546</v>
-      </c>
-      <c r="D476" t="n">
-        <v>2546</v>
-      </c>
-      <c r="E476" t="n">
-        <v>2546</v>
-      </c>
-      <c r="F476" t="n">
-        <v>352.4077</v>
-      </c>
-      <c r="G476" t="n">
-        <v>-27982.67756276434</v>
-      </c>
-      <c r="H476" t="n">
-        <v>0</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L476" t="n">
-        <v>1</v>
-      </c>
-      <c r="M476" t="inlineStr"/>
-    </row>
-    <row r="477">
-      <c r="A477" s="1" t="n">
-        <v>475</v>
-      </c>
-      <c r="B477" t="n">
-        <v>2546</v>
-      </c>
-      <c r="C477" t="n">
-        <v>2546</v>
-      </c>
-      <c r="D477" t="n">
-        <v>2546</v>
-      </c>
-      <c r="E477" t="n">
-        <v>2546</v>
-      </c>
-      <c r="F477" t="n">
-        <v>96.4224</v>
-      </c>
-      <c r="G477" t="n">
-        <v>-27982.67756276434</v>
-      </c>
-      <c r="H477" t="n">
-        <v>0</v>
-      </c>
-      <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L477" t="n">
-        <v>1</v>
-      </c>
-      <c r="M477" t="inlineStr"/>
-    </row>
-    <row r="478">
-      <c r="A478" s="1" t="n">
-        <v>476</v>
-      </c>
-      <c r="B478" t="n">
-        <v>2546</v>
-      </c>
-      <c r="C478" t="n">
-        <v>2546</v>
-      </c>
-      <c r="D478" t="n">
-        <v>2546</v>
-      </c>
-      <c r="E478" t="n">
-        <v>2546</v>
-      </c>
-      <c r="F478" t="n">
-        <v>126.5397</v>
-      </c>
-      <c r="G478" t="n">
-        <v>-27982.67756276434</v>
-      </c>
-      <c r="H478" t="n">
-        <v>0</v>
-      </c>
-      <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L478" t="n">
-        <v>1</v>
-      </c>
-      <c r="M478" t="inlineStr"/>
-    </row>
-    <row r="479">
-      <c r="A479" s="1" t="n">
-        <v>477</v>
-      </c>
-      <c r="B479" t="n">
-        <v>2550</v>
-      </c>
-      <c r="C479" t="n">
-        <v>2550</v>
-      </c>
-      <c r="D479" t="n">
-        <v>2550</v>
-      </c>
-      <c r="E479" t="n">
-        <v>2550</v>
-      </c>
-      <c r="F479" t="n">
-        <v>1</v>
-      </c>
-      <c r="G479" t="n">
-        <v>-27981.67756276434</v>
-      </c>
-      <c r="H479" t="n">
-        <v>0</v>
-      </c>
-      <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L479" t="n">
-        <v>1</v>
-      </c>
-      <c r="M479" t="inlineStr"/>
-    </row>
-    <row r="480">
-      <c r="A480" s="1" t="n">
-        <v>478</v>
-      </c>
-      <c r="B480" t="n">
-        <v>2546</v>
-      </c>
-      <c r="C480" t="n">
-        <v>2546</v>
-      </c>
-      <c r="D480" t="n">
-        <v>2546</v>
-      </c>
-      <c r="E480" t="n">
-        <v>2546</v>
-      </c>
-      <c r="F480" t="n">
-        <v>444.8968</v>
-      </c>
-      <c r="G480" t="n">
-        <v>-28426.57436276434</v>
-      </c>
-      <c r="H480" t="n">
-        <v>0</v>
-      </c>
-      <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L480" t="n">
-        <v>1</v>
-      </c>
-      <c r="M480" t="inlineStr"/>
-    </row>
-    <row r="481">
-      <c r="A481" s="1" t="n">
-        <v>479</v>
-      </c>
-      <c r="B481" t="n">
-        <v>2551</v>
-      </c>
-      <c r="C481" t="n">
-        <v>2551</v>
-      </c>
-      <c r="D481" t="n">
-        <v>2551</v>
-      </c>
-      <c r="E481" t="n">
-        <v>2551</v>
-      </c>
-      <c r="F481" t="n">
-        <v>1</v>
-      </c>
-      <c r="G481" t="n">
-        <v>-28425.57436276434</v>
-      </c>
-      <c r="H481" t="n">
-        <v>0</v>
-      </c>
-      <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L481" t="n">
-        <v>1</v>
-      </c>
-      <c r="M481" t="inlineStr"/>
-    </row>
-    <row r="482">
-      <c r="A482" s="1" t="n">
-        <v>480</v>
-      </c>
-      <c r="B482" t="n">
-        <v>2552</v>
-      </c>
-      <c r="C482" t="n">
-        <v>2552</v>
-      </c>
-      <c r="D482" t="n">
-        <v>2552</v>
-      </c>
-      <c r="E482" t="n">
-        <v>2552</v>
-      </c>
-      <c r="F482" t="n">
-        <v>0.917</v>
-      </c>
-      <c r="G482" t="n">
-        <v>-28424.65736276434</v>
-      </c>
-      <c r="H482" t="n">
-        <v>0</v>
-      </c>
-      <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L482" t="n">
-        <v>1</v>
-      </c>
-      <c r="M482" t="inlineStr"/>
-    </row>
-    <row r="483">
-      <c r="A483" s="1" t="n">
-        <v>481</v>
-      </c>
-      <c r="B483" t="n">
-        <v>2547</v>
-      </c>
-      <c r="C483" t="n">
-        <v>2545</v>
-      </c>
-      <c r="D483" t="n">
-        <v>2547</v>
-      </c>
-      <c r="E483" t="n">
-        <v>2545</v>
-      </c>
-      <c r="F483" t="n">
-        <v>160.2271</v>
-      </c>
-      <c r="G483" t="n">
-        <v>-28584.88446276434</v>
-      </c>
-      <c r="H483" t="n">
-        <v>0</v>
-      </c>
-      <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>2556</v>
-      </c>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16917,11 +16397,13 @@
         <v>-28838.97506276434</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
-      </c>
-      <c r="I484" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I484" t="n">
+        <v>2545</v>
+      </c>
       <c r="J484" t="n">
-        <v>2556</v>
+        <v>2546</v>
       </c>
       <c r="K484" t="inlineStr">
         <is>
@@ -16956,11 +16438,13 @@
         <v>-28767.27976276434</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
-      </c>
-      <c r="I485" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I485" t="n">
+        <v>2542</v>
+      </c>
       <c r="J485" t="n">
-        <v>2556</v>
+        <v>2546</v>
       </c>
       <c r="K485" t="inlineStr">
         <is>
@@ -16995,11 +16479,13 @@
         <v>-28766.87976276434</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
-      </c>
-      <c r="I486" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I486" t="n">
+        <v>2543</v>
+      </c>
       <c r="J486" t="n">
-        <v>2556</v>
+        <v>2546</v>
       </c>
       <c r="K486" t="inlineStr">
         <is>
@@ -17034,11 +16520,13 @@
         <v>-29062.37896276434</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
-      </c>
-      <c r="I487" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I487" t="n">
+        <v>2552</v>
+      </c>
       <c r="J487" t="n">
-        <v>2556</v>
+        <v>2546</v>
       </c>
       <c r="K487" t="inlineStr">
         <is>
@@ -17073,11 +16561,13 @@
         <v>-28955.55936276434</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
-      </c>
-      <c r="I488" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I488" t="n">
+        <v>2550</v>
+      </c>
       <c r="J488" t="n">
-        <v>2556</v>
+        <v>2546</v>
       </c>
       <c r="K488" t="inlineStr">
         <is>
